--- a/GameData/Excel/spell_effect.xlsx
+++ b/GameData/Excel/spell_effect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4843BD9-A8C3-4D75-A155-04DBC45BC8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CBFFAA-6160-4DAA-BF5A-FCF9EC453C82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8964" yWindow="6936" windowWidth="34752" windowHeight="18456" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="8970" yWindow="6930" windowWidth="34755" windowHeight="18450" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="spell_effect" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>int</t>
   </si>
@@ -86,6 +75,190 @@
   </si>
   <si>
     <t>value_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
+  </si>
+  <si>
+    <t>dot_skill_damage</t>
+  </si>
+  <si>
+    <t>dot_heal</t>
+  </si>
+  <si>
+    <t>reflect_damage</t>
+  </si>
+  <si>
+    <t>damage_invincible</t>
+  </si>
+  <si>
+    <t>avoid_up</t>
+  </si>
+  <si>
+    <t>avoid_down</t>
+  </si>
+  <si>
+    <t>all_down_per</t>
+  </si>
+  <si>
+    <t>all_up_per</t>
+  </si>
+  <si>
+    <t>dot_draw</t>
+  </si>
+  <si>
+    <t>debuff_accuracy</t>
+  </si>
+  <si>
+    <t>debuff_resistance</t>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>armor</t>
+  </si>
+  <si>
+    <t>armor_down</t>
+  </si>
+  <si>
+    <t>debuff_dispel</t>
+  </si>
+  <si>
+    <t>buff_dispel</t>
+  </si>
+  <si>
+    <t>ap_up</t>
+  </si>
+  <si>
+    <t>ap_stop</t>
+  </si>
+  <si>
+    <t>action_cancel</t>
+  </si>
+  <si>
+    <t>fusion_level_up</t>
+  </si>
+  <si>
+    <t>damage_spread</t>
+  </si>
+  <si>
+    <t>provoke</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>체력 회복 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대미지 타입 효과_지속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복 효과_지속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해량 일부 반사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해량 일부 반사_비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reflect_damage_per</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해 무효화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피율 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피율 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계수 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계수 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드로우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드로우_지속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 적중률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 저항률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해 확산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어도 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 해제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프 해제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행동 무효화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합 레벨업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -223,9 +396,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -263,7 +436,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -369,7 +542,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -511,7 +684,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -519,23 +692,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.296875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="12" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="3"/>
+    <col min="5" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -549,7 +722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -563,7 +736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -575,7 +748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>10001</v>
       </c>
@@ -589,78 +762,369 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="D7" s="1"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>10002</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="3">
+        <v>30001</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="3">
+        <v>30002</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10" s="3">
+        <v>30003</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="A11" s="3">
+        <v>30004</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="3">
+        <v>30005</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="3">
+        <v>30006</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="3">
+        <v>30007</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="A15" s="3">
+        <v>30008</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="A16" s="3">
+        <v>30009</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="A17" s="3">
+        <v>30010</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>40001</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>40002</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>40003</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>40004</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>40005</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>40006</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>40007</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>40008</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>40009</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>40010</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>40010</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>50001</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>50002</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/GameData/Excel/spell_effect.xlsx
+++ b/GameData/Excel/spell_effect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CBFFAA-6160-4DAA-BF5A-FCF9EC453C82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8503FC5F-BB56-4597-8DB1-5001DBC2738C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8970" yWindow="6930" windowWidth="34755" windowHeight="18450" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>int</t>
   </si>
@@ -108,12 +108,6 @@
     <t>dot_draw</t>
   </si>
   <si>
-    <t>debuff_accuracy</t>
-  </si>
-  <si>
-    <t>debuff_resistance</t>
-  </si>
-  <si>
     <t>draw</t>
   </si>
   <si>
@@ -202,14 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>디버프 적중률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디버프 저항률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>피해 확산</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -259,6 +245,38 @@
   </si>
   <si>
     <t>stun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff_accuracy_up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff_resistance_up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 적중률 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 적중률 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 저항률 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 저항률 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff_accuracy_down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff_resistance_down</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -692,11 +710,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -767,7 +785,7 @@
         <v>10002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -781,7 +799,7 @@
         <v>20001</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -795,7 +813,7 @@
         <v>20002</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -809,10 +827,10 @@
         <v>30001</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="3">
         <v>3</v>
@@ -823,10 +841,10 @@
         <v>30002</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="3">
         <v>4</v>
@@ -837,10 +855,10 @@
         <v>30003</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3">
         <v>4</v>
@@ -851,10 +869,10 @@
         <v>30004</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -865,10 +883,10 @@
         <v>30005</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -879,10 +897,10 @@
         <v>30006</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -893,10 +911,10 @@
         <v>30007</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -907,10 +925,10 @@
         <v>30008</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
@@ -921,10 +939,10 @@
         <v>30009</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -935,10 +953,10 @@
         <v>30010</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
@@ -949,7 +967,7 @@
         <v>40001</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>16</v>
@@ -963,10 +981,10 @@
         <v>40002</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D19" s="1">
         <v>0.1</v>
@@ -977,7 +995,7 @@
         <v>40003</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>17</v>
@@ -991,7 +1009,7 @@
         <v>40004</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>18</v>
@@ -1005,7 +1023,7 @@
         <v>40005</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>19</v>
@@ -1019,7 +1037,7 @@
         <v>40006</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>21</v>
@@ -1033,7 +1051,7 @@
         <v>40007</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>20</v>
@@ -1047,7 +1065,7 @@
         <v>40008</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>22</v>
@@ -1061,10 +1079,10 @@
         <v>40009</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="D26" s="3">
         <v>0.2</v>
@@ -1075,55 +1093,83 @@
         <v>40010</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D27" s="3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>40010</v>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>40011</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>40012</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>40013</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>50001</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>50002</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>50001</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>50002</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0</v>
+      <c r="D32" s="3">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Excel/spell_effect.xlsx
+++ b/GameData/Excel/spell_effect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yerim\portfolio_Game\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8503FC5F-BB56-4597-8DB1-5001DBC2738C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC07720F-CA09-4BA9-BE5F-8B3422E2E6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8970" yWindow="6930" windowWidth="34755" windowHeight="18450" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="spell_effect" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
   <si>
     <t>int</t>
   </si>
@@ -102,181 +113,232 @@
     <t>all_down_per</t>
   </si>
   <si>
+    <t>dot_draw</t>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>armor_down</t>
+  </si>
+  <si>
+    <t>debuff_dispel</t>
+  </si>
+  <si>
+    <t>buff_dispel</t>
+  </si>
+  <si>
+    <t>ap_stop</t>
+  </si>
+  <si>
+    <t>action_cancel</t>
+  </si>
+  <si>
+    <t>fusion_level_up</t>
+  </si>
+  <si>
+    <t>damage_spread</t>
+  </si>
+  <si>
+    <t>provoke</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>체력 회복 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대미지 타입 효과_지속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복 효과_지속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해량 일부 반사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해량 일부 반사_비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reflect_damage_per</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해 무효화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피율 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피율 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계수 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계수 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드로우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드로우_지속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해 확산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어도 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 해제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프 해제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행동 무효화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합 레벨업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff_accuracy_up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff_resistance_up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 적중률 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 적중률 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 저항률 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 저항률 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff_accuracy_down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff_resistance_down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속 턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>all_up_per</t>
-  </si>
-  <si>
-    <t>dot_draw</t>
-  </si>
-  <si>
-    <t>draw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ap_up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>armor</t>
-  </si>
-  <si>
-    <t>armor_down</t>
-  </si>
-  <si>
-    <t>debuff_dispel</t>
-  </si>
-  <si>
-    <t>buff_dispel</t>
-  </si>
-  <si>
-    <t>ap_up</t>
-  </si>
-  <si>
-    <t>ap_stop</t>
-  </si>
-  <si>
-    <t>action_cancel</t>
-  </si>
-  <si>
-    <t>fusion_level_up</t>
-  </si>
-  <si>
-    <t>damage_spread</t>
-  </si>
-  <si>
-    <t>provoke</t>
-  </si>
-  <si>
-    <t>counter</t>
-  </si>
-  <si>
-    <t>체력 회복 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대미지 타입 효과_지속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력 회복 효과_지속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피해량 일부 반사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피해량 일부 반사_비율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reflect_damage_per</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피해 무효화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회피율 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회피율 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계수 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계수 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드로우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드로우_지속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피해 확산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어도 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디버프 해제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버프 해제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AP 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AP 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>행동 무효화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>융합 레벨업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기절</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuff_accuracy_up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuff_resistance_up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디버프 적중률 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디버프 적중률 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디버프 저항률 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디버프 저항률 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuff_accuracy_down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuff_resistance_down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remain_turn_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적용대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:target_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적용대상 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ally</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,9 +476,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -454,7 +516,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -560,7 +622,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -702,7 +764,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -710,23 +772,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="3" customWidth="1"/>
     <col min="2" max="2" width="23.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="3"/>
+    <col min="5" max="5" width="19.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -739,8 +804,20 @@
       <c r="D1" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -753,8 +830,20 @@
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -765,8 +854,17 @@
       <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>10001</v>
       </c>
@@ -779,13 +877,25 @@
       <c r="D4" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>10002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -793,13 +903,25 @@
       <c r="D5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>20001</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -807,13 +929,22 @@
       <c r="D6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>20002</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -821,153 +952,264 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>30001</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>30002</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D9" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>30003</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>30004</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>30005</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>30006</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>30007</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>30008</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>30009</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>30010</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>40001</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>16</v>
@@ -975,27 +1217,45 @@
       <c r="D18" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>40002</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D19" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>40003</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>17</v>
@@ -1003,13 +1263,22 @@
       <c r="D20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>40004</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>18</v>
@@ -1017,13 +1286,22 @@
       <c r="D21" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>40005</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>19</v>
@@ -1031,27 +1309,45 @@
       <c r="D22" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>40006</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="D23" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="3">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>40007</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>20</v>
@@ -1059,117 +1355,203 @@
       <c r="D24" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="3">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>40008</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="3">
+        <v>3</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>40009</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D26" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="3">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>40010</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="D27" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>40011</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D28" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" s="3">
+        <v>4</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>40012</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D29" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>40013</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>50001</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" s="3">
+        <v>3</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>50002</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D32" s="3">
         <v>0.3</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Excel/spell_effect.xlsx
+++ b/GameData/Excel/spell_effect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yerim\portfolio_Game\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC07720F-CA09-4BA9-BE5F-8B3422E2E6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28168637-72E3-47A1-8961-79035BAB5946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="1080" yWindow="3300" windowWidth="16410" windowHeight="11295" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="spell_effect" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
   <si>
     <t>int</t>
   </si>
@@ -335,10 +335,6 @@
   </si>
   <si>
     <t>ally</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -772,11 +768,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -854,7 +850,7 @@
       <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -938,6 +934,9 @@
       <c r="G6" s="3">
         <v>1</v>
       </c>
+      <c r="J6" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -1547,11 +1546,6 @@
       </c>
       <c r="G32" s="3">
         <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E35" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Excel/spell_effect.xlsx
+++ b/GameData/Excel/spell_effect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yerim\portfolio_Game\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28168637-72E3-47A1-8961-79035BAB5946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74388DD-CC97-4FAB-B012-33666A1072FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="3300" windowWidth="16410" windowHeight="11295" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="8220" yWindow="6384" windowWidth="34560" windowHeight="18792" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="spell_effect" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="86">
   <si>
     <t>int</t>
   </si>
@@ -335,6 +335,29 @@
   </si>
   <si>
     <t>ally</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과 태그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:effect_tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>debuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -768,26 +791,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" activeCellId="5" sqref="C4 C5 C8 C9 C11 C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="3"/>
+    <col min="2" max="2" width="23.19921875" style="3" customWidth="1"/>
+    <col min="3" max="4" width="18.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.3984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -795,72 +818,81 @@
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>1</v>
-      </c>
       <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>10001</v>
       </c>
@@ -870,23 +902,26 @@
       <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
         <v>5</v>
       </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10002</v>
       </c>
@@ -896,23 +931,26 @@
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1">
         <v>3</v>
       </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>20001</v>
       </c>
@@ -920,25 +958,28 @@
         <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>3</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>20002</v>
       </c>
@@ -946,22 +987,25 @@
         <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
         <v>3</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>30001</v>
       </c>
@@ -971,20 +1015,23 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="3">
         <v>3</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>30002</v>
       </c>
@@ -994,23 +1041,26 @@
       <c r="C9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="3">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>30003</v>
       </c>
@@ -1018,25 +1068,28 @@
         <v>49</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>30004</v>
       </c>
@@ -1044,22 +1097,25 @@
         <v>50</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
       <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>30005</v>
       </c>
@@ -1067,22 +1123,25 @@
         <v>51</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
       <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>30006</v>
       </c>
@@ -1090,25 +1149,28 @@
         <v>52</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
       <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3" t="s">
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>30007</v>
       </c>
@@ -1116,25 +1178,28 @@
         <v>53</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>30008</v>
       </c>
@@ -1142,22 +1207,25 @@
         <v>54</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
       <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
         <v>2</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>30009</v>
       </c>
@@ -1165,22 +1233,25 @@
         <v>55</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
       <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>30010</v>
       </c>
@@ -1188,206 +1259,233 @@
         <v>56</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
       <c r="E17" s="3">
         <v>0</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>40001</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>2</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>40002</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>0.1</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="3">
         <v>2</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>40003</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>40004</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>0.1</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>40005</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>0.05</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>40006</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>0.3</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>40007</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <v>0.3</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>40008</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
         <v>3</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>40009</v>
       </c>
@@ -1395,22 +1493,25 @@
         <v>60</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="3">
+      <c r="E26" s="3">
         <v>0.2</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>40010</v>
       </c>
@@ -1418,22 +1519,25 @@
         <v>61</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="3">
+      <c r="E27" s="3">
         <v>0.2</v>
       </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>40011</v>
       </c>
@@ -1441,22 +1545,25 @@
         <v>62</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="3">
+      <c r="E28" s="3">
         <v>0.2</v>
       </c>
-      <c r="E28" s="3">
+      <c r="F28" s="3">
         <v>4</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>40012</v>
       </c>
@@ -1464,22 +1571,25 @@
         <v>63</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="3">
+      <c r="E29" s="3">
         <v>0.2</v>
       </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G29" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>40013</v>
       </c>
@@ -1487,22 +1597,25 @@
         <v>45</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
       <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>50001</v>
       </c>
@@ -1510,41 +1623,47 @@
         <v>46</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="3">
-        <v>0</v>
-      </c>
       <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
         <v>3</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>50002</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="3">
+      <c r="E32" s="3">
         <v>0.3</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1</v>
       </c>
     </row>

--- a/GameData/Excel/spell_effect.xlsx
+++ b/GameData/Excel/spell_effect.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67373AE-BE36-45A6-BC98-060CB48B7EAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C486A09E-98D2-4D23-9EFB-FC0F8E1A6827}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8220" yWindow="6390" windowWidth="34560" windowHeight="18795" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="92">
   <si>
     <t>int</t>
   </si>
@@ -135,30 +135,10 @@
     <t>counter</t>
   </si>
   <si>
-    <t>체력 회복 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피해량 일부 반사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피해량 일부 반사_비율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reflect_damage_per</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>피해 무효화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회피율 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회피율 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,18 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>계수 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드로우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드로우_지속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>피해 확산</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,22 +155,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>반격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방어도 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>디버프 해제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>버프 해제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,18 +195,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>디버프 적중률 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>디버프 적중률 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>디버프 저항률 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>디버프 저항률 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,10 +263,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ally</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>effect_tag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -346,7 +290,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>체력 회복 효과_지속(3턴)</t>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>체력 회복 효과_셀프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복 효과_셀프_지속(3턴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드로우_셀프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어도_셀프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 해제_셀프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해량 일부 반사_셀프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해량 일부 반사_셀프_비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해 무효화_셀프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피율 증가_셀프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계수 증가_셀프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드로우_지속_셀프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 적중률 증가_셀프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 저항률 증가_셀프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반격_셀프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(몬스터 전용 효과) 행동 안 함_셀프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ally_hp_lowest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복 효과_낮은체력아군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복 효과_낮은체력아군_연쇄3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어도_낮은체력아군</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -790,17 +813,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:K176"/>
+  <dimension ref="A1:K212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B175" sqref="B175"/>
+      <pane ySplit="3" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="18.125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
     <col min="6" max="6" width="19.375" style="3" customWidth="1"/>
@@ -817,7 +840,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>7</v>
@@ -826,13 +849,13 @@
         <v>12</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>2</v>
@@ -846,7 +869,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>8</v>
@@ -855,16 +878,16 @@
         <v>11</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -873,7 +896,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>9</v>
@@ -885,7 +908,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>1</v>
@@ -911,13 +934,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -940,13 +963,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -969,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -998,13 +1021,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1027,13 +1050,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1056,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1085,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1114,13 +1137,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1143,13 +1166,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1172,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1201,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1230,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1259,13 +1282,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1288,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1317,13 +1340,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1346,13 +1369,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1375,13 +1398,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1404,13 +1427,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1433,13 +1456,13 @@
         <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H22" s="3">
         <v>1</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -1462,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H23" s="3">
         <v>1</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1491,13 +1514,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -1520,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H25" s="3">
         <v>1</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -1549,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H26" s="3">
         <v>1</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -1578,13 +1601,13 @@
         <v>0</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -1607,13 +1630,13 @@
         <v>0</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H28" s="3">
         <v>1</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -1636,13 +1659,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H29" s="3">
         <v>1</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -1665,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H30" s="3">
         <v>1</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -1694,13 +1717,13 @@
         <v>0</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H31" s="3">
         <v>1</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -1723,13 +1746,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H32" s="3">
         <v>1</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -1752,13 +1775,13 @@
         <v>0</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H33" s="3">
         <v>1</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -1766,7 +1789,7 @@
         <v>10201</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>13</v>
@@ -1781,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -1795,7 +1818,7 @@
         <v>10202</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>13</v>
@@ -1810,13 +1833,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H35" s="3">
         <v>1</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -1824,7 +1847,7 @@
         <v>10203</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>13</v>
@@ -1839,13 +1862,13 @@
         <v>0</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H36" s="3">
         <v>1</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -1853,7 +1876,7 @@
         <v>10204</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>13</v>
@@ -1868,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H37" s="3">
         <v>1</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -1882,7 +1905,7 @@
         <v>10205</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>13</v>
@@ -1897,13 +1920,13 @@
         <v>0</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H38" s="3">
         <v>1</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -1911,7 +1934,7 @@
         <v>10206</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>13</v>
@@ -1926,13 +1949,13 @@
         <v>0</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H39" s="3">
         <v>1</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -1940,7 +1963,7 @@
         <v>10207</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>13</v>
@@ -1955,13 +1978,13 @@
         <v>0</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H40" s="3">
         <v>1</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -1969,7 +1992,7 @@
         <v>10208</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>13</v>
@@ -1984,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H41" s="3">
         <v>1</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -1998,7 +2021,7 @@
         <v>10209</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>13</v>
@@ -2013,13 +2036,13 @@
         <v>0</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H42" s="3">
         <v>1</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -2027,7 +2050,7 @@
         <v>10210</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>13</v>
@@ -2042,13 +2065,13 @@
         <v>0</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H43" s="3">
         <v>1</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -2056,7 +2079,7 @@
         <v>10211</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>13</v>
@@ -2071,13 +2094,13 @@
         <v>0</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H44" s="3">
         <v>1</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -2085,7 +2108,7 @@
         <v>10212</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>13</v>
@@ -2100,13 +2123,13 @@
         <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H45" s="3">
         <v>1</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -2114,7 +2137,7 @@
         <v>10213</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>13</v>
@@ -2129,13 +2152,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H46" s="3">
         <v>1</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -2143,7 +2166,7 @@
         <v>10214</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>13</v>
@@ -2158,13 +2181,13 @@
         <v>0</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H47" s="3">
         <v>1</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -2172,7 +2195,7 @@
         <v>10215</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>13</v>
@@ -2187,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H48" s="3">
         <v>1</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -2201,7 +2224,7 @@
         <v>10216</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>13</v>
@@ -2216,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H49" s="3">
         <v>1</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -2230,7 +2253,7 @@
         <v>10217</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>13</v>
@@ -2245,13 +2268,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H50" s="3">
         <v>1</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -2259,7 +2282,7 @@
         <v>10218</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>13</v>
@@ -2274,13 +2297,13 @@
         <v>0</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H51" s="3">
         <v>1</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -2288,7 +2311,7 @@
         <v>10219</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>13</v>
@@ -2303,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H52" s="3">
         <v>1</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -2317,7 +2340,7 @@
         <v>10220</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>13</v>
@@ -2332,13 +2355,13 @@
         <v>0</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H53" s="3">
         <v>1</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -2346,7 +2369,7 @@
         <v>10221</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>13</v>
@@ -2361,13 +2384,13 @@
         <v>0</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H54" s="3">
         <v>1</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -2375,7 +2398,7 @@
         <v>10222</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>13</v>
@@ -2390,13 +2413,13 @@
         <v>0</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H55" s="3">
         <v>1</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -2404,7 +2427,7 @@
         <v>10223</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>13</v>
@@ -2419,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H56" s="3">
         <v>1</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -2433,7 +2456,7 @@
         <v>10224</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>13</v>
@@ -2448,13 +2471,13 @@
         <v>0</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H57" s="3">
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -2462,7 +2485,7 @@
         <v>10225</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>13</v>
@@ -2477,13 +2500,13 @@
         <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H58" s="3">
         <v>1</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -2491,7 +2514,7 @@
         <v>10226</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>13</v>
@@ -2506,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H59" s="3">
         <v>1</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -2520,7 +2543,7 @@
         <v>10227</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>13</v>
@@ -2535,13 +2558,13 @@
         <v>0</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H60" s="3">
         <v>1</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -2549,7 +2572,7 @@
         <v>10228</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>13</v>
@@ -2564,13 +2587,13 @@
         <v>0</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H61" s="3">
         <v>1</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -2578,7 +2601,7 @@
         <v>10229</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>13</v>
@@ -2593,13 +2616,13 @@
         <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H62" s="3">
         <v>1</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
@@ -2607,7 +2630,7 @@
         <v>10230</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>13</v>
@@ -2622,13 +2645,13 @@
         <v>0</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H63" s="3">
         <v>1</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
@@ -2636,10 +2659,10 @@
         <v>20101</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>14</v>
@@ -2651,13 +2674,13 @@
         <v>3</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H64" s="3">
         <v>1</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
@@ -2665,10 +2688,10 @@
         <v>20102</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>14</v>
@@ -2680,13 +2703,13 @@
         <v>3</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H65" s="3">
         <v>1</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
@@ -2694,10 +2717,10 @@
         <v>20103</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>14</v>
@@ -2709,13 +2732,13 @@
         <v>3</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H66" s="3">
         <v>1</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
@@ -2723,10 +2746,10 @@
         <v>20104</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>14</v>
@@ -2738,13 +2761,13 @@
         <v>3</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H67" s="3">
         <v>1</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
@@ -2752,10 +2775,10 @@
         <v>20105</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>14</v>
@@ -2767,13 +2790,13 @@
         <v>3</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H68" s="3">
         <v>1</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -2781,10 +2804,10 @@
         <v>20106</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>14</v>
@@ -2796,13 +2819,13 @@
         <v>3</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H69" s="3">
         <v>1</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -2810,10 +2833,10 @@
         <v>20107</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>14</v>
@@ -2825,13 +2848,13 @@
         <v>3</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H70" s="3">
         <v>1</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -2839,10 +2862,10 @@
         <v>20108</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>14</v>
@@ -2854,13 +2877,13 @@
         <v>3</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H71" s="3">
         <v>1</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
@@ -2868,10 +2891,10 @@
         <v>20109</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>14</v>
@@ -2883,13 +2906,13 @@
         <v>3</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H72" s="3">
         <v>1</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
@@ -2897,10 +2920,10 @@
         <v>20110</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>14</v>
@@ -2912,13 +2935,13 @@
         <v>3</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H73" s="3">
         <v>1</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
@@ -2926,7 +2949,7 @@
         <v>20201</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>13</v>
@@ -2941,7 +2964,7 @@
         <v>3</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H74" s="3">
         <v>1</v>
@@ -2952,7 +2975,7 @@
         <v>20202</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>13</v>
@@ -2967,7 +2990,7 @@
         <v>3</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H75" s="3">
         <v>1</v>
@@ -2978,7 +3001,7 @@
         <v>20203</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>13</v>
@@ -2993,7 +3016,7 @@
         <v>3</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H76" s="3">
         <v>1</v>
@@ -3004,7 +3027,7 @@
         <v>20204</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>13</v>
@@ -3019,7 +3042,7 @@
         <v>3</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H77" s="3">
         <v>1</v>
@@ -3030,7 +3053,7 @@
         <v>20205</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>13</v>
@@ -3045,7 +3068,7 @@
         <v>3</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H78" s="3">
         <v>1</v>
@@ -3056,7 +3079,7 @@
         <v>20206</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>13</v>
@@ -3071,7 +3094,7 @@
         <v>3</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H79" s="3">
         <v>1</v>
@@ -3082,7 +3105,7 @@
         <v>20207</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>13</v>
@@ -3097,7 +3120,7 @@
         <v>3</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H80" s="3">
         <v>1</v>
@@ -3108,7 +3131,7 @@
         <v>20208</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>13</v>
@@ -3123,7 +3146,7 @@
         <v>3</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H81" s="3">
         <v>1</v>
@@ -3134,7 +3157,7 @@
         <v>20209</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>13</v>
@@ -3149,7 +3172,7 @@
         <v>3</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H82" s="3">
         <v>1</v>
@@ -3160,7 +3183,7 @@
         <v>20210</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>13</v>
@@ -3175,7 +3198,7 @@
         <v>3</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H83" s="3">
         <v>1</v>
@@ -3186,7 +3209,7 @@
         <v>30100</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>22</v>
@@ -3201,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H84" s="10">
         <v>1</v>
@@ -3212,13 +3235,13 @@
         <v>30201</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E85" s="3">
         <v>1</v>
@@ -3227,13 +3250,13 @@
         <v>0</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H85" s="3">
         <v>1</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -3241,13 +3264,13 @@
         <v>30202</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E86" s="3">
         <v>2</v>
@@ -3256,13 +3279,13 @@
         <v>0</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H86" s="3">
         <v>1</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -3270,13 +3293,13 @@
         <v>30203</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E87" s="3">
         <v>3</v>
@@ -3285,13 +3308,13 @@
         <v>0</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H87" s="3">
         <v>1</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -3299,13 +3322,13 @@
         <v>30204</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E88" s="3">
         <v>4</v>
@@ -3314,13 +3337,13 @@
         <v>0</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H88" s="3">
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -3328,13 +3351,13 @@
         <v>30205</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E89" s="3">
         <v>5</v>
@@ -3343,13 +3366,13 @@
         <v>0</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H89" s="3">
         <v>1</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -3357,13 +3380,13 @@
         <v>30206</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E90" s="3">
         <v>6</v>
@@ -3372,13 +3395,13 @@
         <v>0</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H90" s="3">
         <v>1</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -3386,13 +3409,13 @@
         <v>30207</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E91" s="3">
         <v>7</v>
@@ -3401,13 +3424,13 @@
         <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H91" s="3">
         <v>1</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -3415,13 +3438,13 @@
         <v>30208</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E92" s="3">
         <v>8</v>
@@ -3430,13 +3453,13 @@
         <v>0</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H92" s="3">
         <v>1</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -3444,13 +3467,13 @@
         <v>30209</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E93" s="3">
         <v>9</v>
@@ -3459,13 +3482,13 @@
         <v>0</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H93" s="3">
         <v>1</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -3473,13 +3496,13 @@
         <v>30210</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E94" s="3">
         <v>10</v>
@@ -3488,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H94" s="3">
         <v>1</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -3502,13 +3525,13 @@
         <v>30211</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E95" s="3">
         <v>11</v>
@@ -3517,13 +3540,13 @@
         <v>0</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H95" s="3">
         <v>1</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -3531,13 +3554,13 @@
         <v>30212</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E96" s="3">
         <v>12</v>
@@ -3546,13 +3569,13 @@
         <v>0</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H96" s="3">
         <v>1</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -3560,13 +3583,13 @@
         <v>30213</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E97" s="3">
         <v>13</v>
@@ -3575,13 +3598,13 @@
         <v>0</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H97" s="3">
         <v>1</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -3589,13 +3612,13 @@
         <v>30214</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E98" s="3">
         <v>14</v>
@@ -3604,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H98" s="3">
         <v>1</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -3618,13 +3641,13 @@
         <v>30215</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E99" s="3">
         <v>15</v>
@@ -3633,13 +3656,13 @@
         <v>0</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H99" s="3">
         <v>1</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -3647,13 +3670,13 @@
         <v>30216</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E100" s="3">
         <v>16</v>
@@ -3662,13 +3685,13 @@
         <v>0</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H100" s="3">
         <v>1</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -3676,13 +3699,13 @@
         <v>30217</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E101" s="3">
         <v>17</v>
@@ -3691,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H101" s="3">
         <v>1</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
@@ -3705,13 +3728,13 @@
         <v>30218</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E102" s="3">
         <v>18</v>
@@ -3720,13 +3743,13 @@
         <v>0</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H102" s="3">
         <v>1</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
@@ -3734,13 +3757,13 @@
         <v>30219</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E103" s="3">
         <v>19</v>
@@ -3749,13 +3772,13 @@
         <v>0</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H103" s="3">
         <v>1</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
@@ -3763,13 +3786,13 @@
         <v>30220</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E104" s="3">
         <v>20</v>
@@ -3778,13 +3801,13 @@
         <v>0</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H104" s="3">
         <v>1</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
@@ -3792,13 +3815,13 @@
         <v>30221</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E105" s="3">
         <v>21</v>
@@ -3807,13 +3830,13 @@
         <v>0</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H105" s="3">
         <v>1</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
@@ -3821,13 +3844,13 @@
         <v>30222</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E106" s="3">
         <v>22</v>
@@ -3836,13 +3859,13 @@
         <v>0</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H106" s="3">
         <v>1</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
@@ -3850,13 +3873,13 @@
         <v>30223</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E107" s="3">
         <v>23</v>
@@ -3865,13 +3888,13 @@
         <v>0</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H107" s="3">
         <v>1</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
@@ -3879,13 +3902,13 @@
         <v>30224</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E108" s="3">
         <v>24</v>
@@ -3894,13 +3917,13 @@
         <v>0</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H108" s="3">
         <v>1</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
@@ -3908,13 +3931,13 @@
         <v>30225</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E109" s="3">
         <v>25</v>
@@ -3923,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H109" s="3">
         <v>1</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
@@ -3937,13 +3960,13 @@
         <v>30226</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E110" s="3">
         <v>26</v>
@@ -3952,13 +3975,13 @@
         <v>0</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H110" s="3">
         <v>1</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
@@ -3966,13 +3989,13 @@
         <v>30227</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E111" s="3">
         <v>27</v>
@@ -3981,13 +4004,13 @@
         <v>0</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H111" s="3">
         <v>1</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
@@ -3995,13 +4018,13 @@
         <v>30228</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E112" s="3">
         <v>28</v>
@@ -4010,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H112" s="3">
         <v>1</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
@@ -4024,13 +4047,13 @@
         <v>30229</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E113" s="3">
         <v>29</v>
@@ -4039,13 +4062,13 @@
         <v>0</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H113" s="3">
         <v>1</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
@@ -4053,13 +4076,13 @@
         <v>30230</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E114" s="3">
         <v>30</v>
@@ -4068,13 +4091,13 @@
         <v>0</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H114" s="3">
         <v>1</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
@@ -4082,10 +4105,10 @@
         <v>30301</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>23</v>
@@ -4097,13 +4120,13 @@
         <v>0</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H115" s="3">
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
@@ -4111,10 +4134,10 @@
         <v>30302</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>23</v>
@@ -4126,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H116" s="3">
         <v>1</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
@@ -4140,10 +4163,10 @@
         <v>30303</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>23</v>
@@ -4155,13 +4178,13 @@
         <v>0</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H117" s="3">
         <v>1</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
@@ -4169,10 +4192,10 @@
         <v>30304</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>23</v>
@@ -4184,13 +4207,13 @@
         <v>0</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H118" s="3">
         <v>1</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
@@ -4198,10 +4221,10 @@
         <v>30305</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>23</v>
@@ -4213,13 +4236,13 @@
         <v>0</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H119" s="3">
         <v>1</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
@@ -4227,10 +4250,10 @@
         <v>30306</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>23</v>
@@ -4242,13 +4265,13 @@
         <v>0</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H120" s="3">
         <v>1</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
@@ -4256,10 +4279,10 @@
         <v>30307</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>23</v>
@@ -4271,13 +4294,13 @@
         <v>0</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H121" s="3">
         <v>1</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
@@ -4285,10 +4308,10 @@
         <v>30308</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>23</v>
@@ -4300,13 +4323,13 @@
         <v>0</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H122" s="3">
         <v>1</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
@@ -4314,10 +4337,10 @@
         <v>30309</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>23</v>
@@ -4329,13 +4352,13 @@
         <v>0</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H123" s="3">
         <v>1</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
@@ -4343,10 +4366,10 @@
         <v>30310</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>23</v>
@@ -4358,13 +4381,13 @@
         <v>0</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H124" s="3">
         <v>1</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
@@ -4372,10 +4395,10 @@
         <v>30311</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>23</v>
@@ -4387,13 +4410,13 @@
         <v>0</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H125" s="3">
         <v>1</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
@@ -4401,10 +4424,10 @@
         <v>30312</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>23</v>
@@ -4416,13 +4439,13 @@
         <v>0</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H126" s="3">
         <v>1</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
@@ -4430,10 +4453,10 @@
         <v>30313</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>23</v>
@@ -4445,13 +4468,13 @@
         <v>0</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H127" s="3">
         <v>1</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
@@ -4459,10 +4482,10 @@
         <v>30314</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>23</v>
@@ -4474,13 +4497,13 @@
         <v>0</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H128" s="3">
         <v>1</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
@@ -4488,10 +4511,10 @@
         <v>30315</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>23</v>
@@ -4503,13 +4526,13 @@
         <v>0</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H129" s="3">
         <v>1</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
@@ -4517,10 +4540,10 @@
         <v>30316</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>23</v>
@@ -4532,13 +4555,13 @@
         <v>0</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H130" s="3">
         <v>1</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
@@ -4546,10 +4569,10 @@
         <v>30317</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>23</v>
@@ -4561,13 +4584,13 @@
         <v>0</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H131" s="3">
         <v>1</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
@@ -4575,10 +4598,10 @@
         <v>30318</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>23</v>
@@ -4590,13 +4613,13 @@
         <v>0</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H132" s="3">
         <v>1</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
@@ -4604,10 +4627,10 @@
         <v>30319</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>23</v>
@@ -4619,13 +4642,13 @@
         <v>0</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H133" s="3">
         <v>1</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
@@ -4633,10 +4656,10 @@
         <v>30320</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>23</v>
@@ -4648,13 +4671,13 @@
         <v>0</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H134" s="3">
         <v>1</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
@@ -4662,10 +4685,10 @@
         <v>30401</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>24</v>
@@ -4677,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H135" s="3">
         <v>1</v>
@@ -4688,10 +4711,10 @@
         <v>30402</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>24</v>
@@ -4703,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H136" s="3">
         <v>1</v>
@@ -4714,10 +4737,10 @@
         <v>30403</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>24</v>
@@ -4729,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H137" s="3">
         <v>1</v>
@@ -4740,10 +4763,10 @@
         <v>30404</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>24</v>
@@ -4755,7 +4778,7 @@
         <v>0</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H138" s="3">
         <v>1</v>
@@ -4766,10 +4789,10 @@
         <v>30405</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>24</v>
@@ -4781,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H139" s="3">
         <v>1</v>
@@ -4792,10 +4815,10 @@
         <v>30501</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>25</v>
@@ -4807,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H140" s="3">
         <v>1</v>
@@ -4818,10 +4841,10 @@
         <v>30502</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>25</v>
@@ -4833,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H141" s="3">
         <v>1</v>
@@ -4844,10 +4867,10 @@
         <v>30503</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>25</v>
@@ -4859,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H142" s="3">
         <v>1</v>
@@ -4870,10 +4893,10 @@
         <v>30504</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>25</v>
@@ -4885,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H143" s="3">
         <v>1</v>
@@ -4896,10 +4919,10 @@
         <v>30505</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>25</v>
@@ -4911,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H144" s="3">
         <v>1</v>
@@ -4922,13 +4945,13 @@
         <v>30601</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E145" s="3">
         <v>1</v>
@@ -4937,13 +4960,13 @@
         <v>0</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H145" s="3">
         <v>1</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
@@ -4951,13 +4974,13 @@
         <v>30602</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E146" s="3">
         <v>2</v>
@@ -4966,13 +4989,13 @@
         <v>0</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H146" s="3">
         <v>1</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
@@ -4980,13 +5003,13 @@
         <v>30603</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E147" s="3">
         <v>3</v>
@@ -4995,13 +5018,13 @@
         <v>0</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H147" s="3">
         <v>1</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
@@ -5009,13 +5032,13 @@
         <v>30604</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E148" s="3">
         <v>4</v>
@@ -5024,13 +5047,13 @@
         <v>0</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H148" s="3">
         <v>1</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
@@ -5038,13 +5061,13 @@
         <v>30605</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E149" s="3">
         <v>5</v>
@@ -5053,13 +5076,13 @@
         <v>0</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H149" s="3">
         <v>1</v>
       </c>
       <c r="K149" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
@@ -5067,10 +5090,10 @@
         <v>30701</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>26</v>
@@ -5082,13 +5105,13 @@
         <v>0</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H150" s="3">
         <v>1</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
@@ -5096,10 +5119,10 @@
         <v>30702</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>26</v>
@@ -5111,13 +5134,13 @@
         <v>0</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H151" s="3">
         <v>1</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
@@ -5125,10 +5148,10 @@
         <v>30703</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>26</v>
@@ -5140,13 +5163,13 @@
         <v>0</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H152" s="3">
         <v>1</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
@@ -5154,10 +5177,10 @@
         <v>30704</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>26</v>
@@ -5169,13 +5192,13 @@
         <v>0</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H153" s="3">
         <v>1</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
@@ -5183,10 +5206,10 @@
         <v>30705</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>26</v>
@@ -5198,13 +5221,13 @@
         <v>0</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H154" s="3">
         <v>1</v>
       </c>
       <c r="K154" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
@@ -5212,10 +5235,10 @@
         <v>30801</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>27</v>
@@ -5227,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H155" s="3">
         <v>1</v>
@@ -5238,10 +5261,10 @@
         <v>30802</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>27</v>
@@ -5253,7 +5276,7 @@
         <v>2</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H156" s="3">
         <v>1</v>
@@ -5264,10 +5287,10 @@
         <v>30803</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>27</v>
@@ -5279,7 +5302,7 @@
         <v>3</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H157" s="3">
         <v>1</v>
@@ -5290,10 +5313,10 @@
         <v>30804</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>27</v>
@@ -5305,7 +5328,7 @@
         <v>4</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H158" s="3">
         <v>1</v>
@@ -5316,10 +5339,10 @@
         <v>30805</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>27</v>
@@ -5331,7 +5354,7 @@
         <v>5</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H159" s="3">
         <v>1</v>
@@ -5342,10 +5365,10 @@
         <v>30900</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>28</v>
@@ -5357,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H160" s="3">
         <v>1</v>
@@ -5368,13 +5391,13 @@
         <v>31000</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E161" s="3">
         <v>0</v>
@@ -5383,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H161" s="3">
         <v>1</v>
@@ -5394,10 +5417,10 @@
         <v>40100</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>16</v>
@@ -5409,7 +5432,7 @@
         <v>2</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H162" s="3">
         <v>1</v>
@@ -5420,13 +5443,13 @@
         <v>40200</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E163" s="1">
         <v>0.1</v>
@@ -5435,7 +5458,7 @@
         <v>2</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H163" s="3">
         <v>1</v>
@@ -5446,10 +5469,10 @@
         <v>40300</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>17</v>
@@ -5461,7 +5484,7 @@
         <v>1</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H164" s="3">
         <v>1</v>
@@ -5472,10 +5495,10 @@
         <v>40400</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>18</v>
@@ -5487,7 +5510,7 @@
         <v>2</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H165" s="3">
         <v>1</v>
@@ -5498,10 +5521,10 @@
         <v>40500</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>19</v>
@@ -5513,7 +5536,7 @@
         <v>2</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H166" s="3">
         <v>1</v>
@@ -5524,13 +5547,13 @@
         <v>40600</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E167" s="11">
         <v>0.3</v>
@@ -5539,7 +5562,7 @@
         <v>3</v>
       </c>
       <c r="G167" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H167" s="10">
         <v>1</v>
@@ -5550,10 +5573,10 @@
         <v>40700</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D168" s="11" t="s">
         <v>20</v>
@@ -5565,7 +5588,7 @@
         <v>3</v>
       </c>
       <c r="G168" s="10" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H168" s="10">
         <v>1</v>
@@ -5576,7 +5599,7 @@
         <v>40800</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="C169" s="10" t="s">
         <v>22</v>
@@ -5591,7 +5614,7 @@
         <v>3</v>
       </c>
       <c r="G169" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H169" s="10">
         <v>1</v>
@@ -5602,13 +5625,13 @@
         <v>40900</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E170" s="3">
         <v>0.2</v>
@@ -5617,7 +5640,7 @@
         <v>4</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H170" s="3">
         <v>1</v>
@@ -5628,13 +5651,13 @@
         <v>41000</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E171" s="3">
         <v>0.2</v>
@@ -5643,7 +5666,7 @@
         <v>1</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H171" s="3">
         <v>1</v>
@@ -5654,13 +5677,13 @@
         <v>41100</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E172" s="3">
         <v>0.2</v>
@@ -5669,7 +5692,7 @@
         <v>4</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H172" s="3">
         <v>1</v>
@@ -5680,13 +5703,13 @@
         <v>41200</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E173" s="3">
         <v>0.2</v>
@@ -5695,7 +5718,7 @@
         <v>1</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H173" s="3">
         <v>1</v>
@@ -5706,10 +5729,10 @@
         <v>41300</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>29</v>
@@ -5721,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H174" s="3">
         <v>1</v>
@@ -5732,10 +5755,10 @@
         <v>50100</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>30</v>
@@ -5747,7 +5770,7 @@
         <v>3</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H175" s="3">
         <v>1</v>
@@ -5758,7 +5781,7 @@
         <v>50200</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>10</v>
@@ -5773,10 +5796,1054 @@
         <v>0</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H176" s="3">
         <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A177" s="3">
+        <v>100101</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E177" s="1">
+        <v>1</v>
+      </c>
+      <c r="F177" s="3">
+        <v>0</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H177" s="3">
+        <v>1</v>
+      </c>
+      <c r="K177" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A178" s="3">
+        <v>100201</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E178" s="1">
+        <v>1</v>
+      </c>
+      <c r="F178" s="3">
+        <v>0</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H178" s="3">
+        <v>1</v>
+      </c>
+      <c r="K178" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A179" s="3">
+        <v>100202</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E179" s="1">
+        <v>2</v>
+      </c>
+      <c r="F179" s="3">
+        <v>0</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H179" s="3">
+        <v>1</v>
+      </c>
+      <c r="K179" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A180" s="3">
+        <v>100203</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E180" s="1">
+        <v>3</v>
+      </c>
+      <c r="F180" s="3">
+        <v>0</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H180" s="3">
+        <v>1</v>
+      </c>
+      <c r="K180" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A181" s="3">
+        <v>100204</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E181" s="1">
+        <v>4</v>
+      </c>
+      <c r="F181" s="3">
+        <v>0</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H181" s="3">
+        <v>1</v>
+      </c>
+      <c r="K181" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A182" s="3">
+        <v>100205</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E182" s="1">
+        <v>5</v>
+      </c>
+      <c r="F182" s="3">
+        <v>0</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H182" s="3">
+        <v>1</v>
+      </c>
+      <c r="K182" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A183" s="3">
+        <v>100206</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E183" s="1">
+        <v>6</v>
+      </c>
+      <c r="F183" s="3">
+        <v>0</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H183" s="3">
+        <v>1</v>
+      </c>
+      <c r="K183" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A184" s="3">
+        <v>100207</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E184" s="1">
+        <v>7</v>
+      </c>
+      <c r="F184" s="3">
+        <v>0</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H184" s="3">
+        <v>1</v>
+      </c>
+      <c r="K184" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A185" s="3">
+        <v>100208</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E185" s="1">
+        <v>8</v>
+      </c>
+      <c r="F185" s="3">
+        <v>0</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H185" s="3">
+        <v>1</v>
+      </c>
+      <c r="K185" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A186" s="3">
+        <v>100209</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E186" s="1">
+        <v>9</v>
+      </c>
+      <c r="F186" s="3">
+        <v>0</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H186" s="3">
+        <v>1</v>
+      </c>
+      <c r="K186" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A187" s="3">
+        <v>100210</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E187" s="1">
+        <v>10</v>
+      </c>
+      <c r="F187" s="3">
+        <v>0</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H187" s="3">
+        <v>1</v>
+      </c>
+      <c r="K187" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A188" s="3">
+        <v>100301</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E188" s="1">
+        <v>1</v>
+      </c>
+      <c r="F188" s="3">
+        <v>0</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H188" s="3">
+        <v>3</v>
+      </c>
+      <c r="K188" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A189" s="3">
+        <v>100302</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E189" s="1">
+        <v>2</v>
+      </c>
+      <c r="F189" s="3">
+        <v>0</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H189" s="3">
+        <v>3</v>
+      </c>
+      <c r="K189" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A190" s="3">
+        <v>100303</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E190" s="1">
+        <v>3</v>
+      </c>
+      <c r="F190" s="3">
+        <v>0</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H190" s="3">
+        <v>3</v>
+      </c>
+      <c r="K190" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A191" s="3">
+        <v>100304</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E191" s="1">
+        <v>4</v>
+      </c>
+      <c r="F191" s="3">
+        <v>0</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H191" s="3">
+        <v>3</v>
+      </c>
+      <c r="K191" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A192" s="3">
+        <v>100305</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E192" s="1">
+        <v>5</v>
+      </c>
+      <c r="F192" s="3">
+        <v>0</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H192" s="3">
+        <v>3</v>
+      </c>
+      <c r="K192" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A193" s="3">
+        <v>100306</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E193" s="1">
+        <v>6</v>
+      </c>
+      <c r="F193" s="3">
+        <v>0</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H193" s="3">
+        <v>3</v>
+      </c>
+      <c r="K193" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A194" s="3">
+        <v>100307</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E194" s="1">
+        <v>7</v>
+      </c>
+      <c r="F194" s="3">
+        <v>0</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H194" s="3">
+        <v>3</v>
+      </c>
+      <c r="K194" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A195" s="3">
+        <v>100308</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E195" s="1">
+        <v>8</v>
+      </c>
+      <c r="F195" s="3">
+        <v>0</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H195" s="3">
+        <v>3</v>
+      </c>
+      <c r="K195" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A196" s="3">
+        <v>100309</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E196" s="1">
+        <v>9</v>
+      </c>
+      <c r="F196" s="3">
+        <v>0</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H196" s="3">
+        <v>3</v>
+      </c>
+      <c r="K196" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A197" s="3">
+        <v>100310</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E197" s="1">
+        <v>10</v>
+      </c>
+      <c r="F197" s="3">
+        <v>0</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H197" s="3">
+        <v>3</v>
+      </c>
+      <c r="K197" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A198" s="3">
+        <v>130201</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E198" s="3">
+        <v>1</v>
+      </c>
+      <c r="F198" s="3">
+        <v>0</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H198" s="3">
+        <v>1</v>
+      </c>
+      <c r="K198" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A199" s="3">
+        <v>130202</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E199" s="3">
+        <v>2</v>
+      </c>
+      <c r="F199" s="3">
+        <v>0</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H199" s="3">
+        <v>1</v>
+      </c>
+      <c r="K199" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A200" s="3">
+        <v>130203</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E200" s="3">
+        <v>3</v>
+      </c>
+      <c r="F200" s="3">
+        <v>0</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H200" s="3">
+        <v>1</v>
+      </c>
+      <c r="K200" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A201" s="3">
+        <v>130204</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E201" s="3">
+        <v>4</v>
+      </c>
+      <c r="F201" s="3">
+        <v>0</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H201" s="3">
+        <v>1</v>
+      </c>
+      <c r="K201" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A202" s="3">
+        <v>130205</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E202" s="3">
+        <v>5</v>
+      </c>
+      <c r="F202" s="3">
+        <v>0</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H202" s="3">
+        <v>1</v>
+      </c>
+      <c r="K202" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A203" s="3">
+        <v>130206</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E203" s="3">
+        <v>6</v>
+      </c>
+      <c r="F203" s="3">
+        <v>0</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H203" s="3">
+        <v>1</v>
+      </c>
+      <c r="K203" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A204" s="3">
+        <v>130207</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E204" s="3">
+        <v>7</v>
+      </c>
+      <c r="F204" s="3">
+        <v>0</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H204" s="3">
+        <v>1</v>
+      </c>
+      <c r="K204" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A205" s="3">
+        <v>130208</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E205" s="3">
+        <v>8</v>
+      </c>
+      <c r="F205" s="3">
+        <v>0</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H205" s="3">
+        <v>1</v>
+      </c>
+      <c r="K205" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A206" s="3">
+        <v>130209</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E206" s="3">
+        <v>9</v>
+      </c>
+      <c r="F206" s="3">
+        <v>0</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H206" s="3">
+        <v>1</v>
+      </c>
+      <c r="K206" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A207" s="3">
+        <v>130210</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E207" s="3">
+        <v>10</v>
+      </c>
+      <c r="F207" s="3">
+        <v>0</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H207" s="3">
+        <v>1</v>
+      </c>
+      <c r="K207" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A208" s="3">
+        <v>130211</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E208" s="3">
+        <v>11</v>
+      </c>
+      <c r="F208" s="3">
+        <v>0</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H208" s="3">
+        <v>1</v>
+      </c>
+      <c r="K208" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A209" s="3">
+        <v>130212</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E209" s="3">
+        <v>12</v>
+      </c>
+      <c r="F209" s="3">
+        <v>0</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H209" s="3">
+        <v>1</v>
+      </c>
+      <c r="K209" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A210" s="3">
+        <v>130213</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E210" s="3">
+        <v>13</v>
+      </c>
+      <c r="F210" s="3">
+        <v>0</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H210" s="3">
+        <v>1</v>
+      </c>
+      <c r="K210" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A211" s="3">
+        <v>130214</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E211" s="3">
+        <v>14</v>
+      </c>
+      <c r="F211" s="3">
+        <v>0</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H211" s="3">
+        <v>1</v>
+      </c>
+      <c r="K211" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A212" s="3">
+        <v>130215</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E212" s="3">
+        <v>15</v>
+      </c>
+      <c r="F212" s="3">
+        <v>0</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H212" s="3">
+        <v>1</v>
+      </c>
+      <c r="K212" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Excel/spell_effect.xlsx
+++ b/GameData/Excel/spell_effect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C486A09E-98D2-4D23-9EFB-FC0F8E1A6827}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1493D2-7EE2-4044-9EB8-DC10E3CAF208}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8220" yWindow="6390" windowWidth="34560" windowHeight="18795" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="93">
   <si>
     <t>int</t>
   </si>
@@ -365,11 +365,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>체력 회복 효과_낮은체력아군_연쇄3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방어도_낮은체력아군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복 효과_낮은체력아군_연쇄2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(몬스터 전용) AP 감소/증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -813,11 +817,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:K212"/>
+  <dimension ref="A1:K217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
+      <pane ySplit="3" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C213" sqref="C213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -4948,7 +4952,7 @@
         <v>39</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>53</v>
@@ -4977,7 +4981,7 @@
         <v>39</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>53</v>
@@ -5006,7 +5010,7 @@
         <v>39</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>53</v>
@@ -5035,7 +5039,7 @@
         <v>39</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>53</v>
@@ -5064,7 +5068,7 @@
         <v>39</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>53</v>
@@ -5110,9 +5114,6 @@
       <c r="H150" s="3">
         <v>1</v>
       </c>
-      <c r="K150" s="3" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
@@ -5139,9 +5140,6 @@
       <c r="H151" s="3">
         <v>1</v>
       </c>
-      <c r="K151" s="3" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
@@ -5168,9 +5166,6 @@
       <c r="H152" s="3">
         <v>1</v>
       </c>
-      <c r="K152" s="3" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
@@ -5197,9 +5192,6 @@
       <c r="H153" s="3">
         <v>1</v>
       </c>
-      <c r="K153" s="3" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
@@ -5226,9 +5218,6 @@
       <c r="H154" s="3">
         <v>1</v>
       </c>
-      <c r="K154" s="3" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
@@ -6126,7 +6115,7 @@
         <v>100301</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>13</v>
@@ -6144,7 +6133,7 @@
         <v>88</v>
       </c>
       <c r="H188" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K188" s="3" t="s">
         <v>55</v>
@@ -6155,7 +6144,7 @@
         <v>100302</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>13</v>
@@ -6173,7 +6162,7 @@
         <v>88</v>
       </c>
       <c r="H189" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K189" s="3" t="s">
         <v>55</v>
@@ -6184,7 +6173,7 @@
         <v>100303</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>13</v>
@@ -6202,7 +6191,7 @@
         <v>88</v>
       </c>
       <c r="H190" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K190" s="3" t="s">
         <v>55</v>
@@ -6213,7 +6202,7 @@
         <v>100304</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>13</v>
@@ -6231,7 +6220,7 @@
         <v>88</v>
       </c>
       <c r="H191" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K191" s="3" t="s">
         <v>55</v>
@@ -6242,7 +6231,7 @@
         <v>100305</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>13</v>
@@ -6260,7 +6249,7 @@
         <v>88</v>
       </c>
       <c r="H192" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K192" s="3" t="s">
         <v>55</v>
@@ -6271,7 +6260,7 @@
         <v>100306</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>13</v>
@@ -6289,7 +6278,7 @@
         <v>88</v>
       </c>
       <c r="H193" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K193" s="3" t="s">
         <v>55</v>
@@ -6300,7 +6289,7 @@
         <v>100307</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>13</v>
@@ -6318,7 +6307,7 @@
         <v>88</v>
       </c>
       <c r="H194" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K194" s="3" t="s">
         <v>55</v>
@@ -6329,7 +6318,7 @@
         <v>100308</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>13</v>
@@ -6347,7 +6336,7 @@
         <v>88</v>
       </c>
       <c r="H195" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K195" s="3" t="s">
         <v>55</v>
@@ -6358,7 +6347,7 @@
         <v>100309</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>13</v>
@@ -6376,7 +6365,7 @@
         <v>88</v>
       </c>
       <c r="H196" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K196" s="3" t="s">
         <v>55</v>
@@ -6387,7 +6376,7 @@
         <v>100310</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>13</v>
@@ -6405,7 +6394,7 @@
         <v>88</v>
       </c>
       <c r="H197" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K197" s="3" t="s">
         <v>55</v>
@@ -6416,7 +6405,7 @@
         <v>130201</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>54</v>
@@ -6445,7 +6434,7 @@
         <v>130202</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>54</v>
@@ -6474,7 +6463,7 @@
         <v>130203</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>54</v>
@@ -6503,7 +6492,7 @@
         <v>130204</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>54</v>
@@ -6532,7 +6521,7 @@
         <v>130205</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>54</v>
@@ -6561,7 +6550,7 @@
         <v>130206</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>54</v>
@@ -6590,7 +6579,7 @@
         <v>130207</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>54</v>
@@ -6619,7 +6608,7 @@
         <v>130208</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>54</v>
@@ -6648,7 +6637,7 @@
         <v>130209</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>54</v>
@@ -6677,7 +6666,7 @@
         <v>130210</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>54</v>
@@ -6706,7 +6695,7 @@
         <v>130211</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>54</v>
@@ -6735,7 +6724,7 @@
         <v>130212</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>54</v>
@@ -6764,7 +6753,7 @@
         <v>130213</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>54</v>
@@ -6793,7 +6782,7 @@
         <v>130214</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>54</v>
@@ -6822,7 +6811,7 @@
         <v>130215</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>54</v>
@@ -6843,6 +6832,151 @@
         <v>1</v>
       </c>
       <c r="K212" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A213" s="3">
+        <v>130601</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E213" s="3">
+        <v>1</v>
+      </c>
+      <c r="F213" s="3">
+        <v>0</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H213" s="3">
+        <v>1</v>
+      </c>
+      <c r="K213" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A214" s="3">
+        <v>130602</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E214" s="3">
+        <v>2</v>
+      </c>
+      <c r="F214" s="3">
+        <v>0</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H214" s="3">
+        <v>1</v>
+      </c>
+      <c r="K214" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A215" s="3">
+        <v>130603</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E215" s="3">
+        <v>3</v>
+      </c>
+      <c r="F215" s="3">
+        <v>0</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H215" s="3">
+        <v>1</v>
+      </c>
+      <c r="K215" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A216" s="3">
+        <v>130604</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E216" s="3">
+        <v>4</v>
+      </c>
+      <c r="F216" s="3">
+        <v>0</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H216" s="3">
+        <v>1</v>
+      </c>
+      <c r="K216" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A217" s="3">
+        <v>130605</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E217" s="3">
+        <v>5</v>
+      </c>
+      <c r="F217" s="3">
+        <v>0</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H217" s="3">
+        <v>1</v>
+      </c>
+      <c r="K217" s="3" t="s">
         <v>55</v>
       </c>
     </row>

--- a/GameData/Excel/spell_effect.xlsx
+++ b/GameData/Excel/spell_effect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1493D2-7EE2-4044-9EB8-DC10E3CAF208}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548F38C9-F683-42F3-AB60-190571A88830}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8220" yWindow="6390" windowWidth="34560" windowHeight="18795" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="94">
   <si>
     <t>int</t>
   </si>
@@ -374,6 +374,10 @@
   </si>
   <si>
     <t>(몬스터 전용) AP 감소/증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -820,8 +824,8 @@
   <dimension ref="A1:K217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C213" sqref="C213"/>
+      <pane ySplit="3" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D148" sqref="D148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -5097,7 +5101,7 @@
         <v>40</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>26</v>
@@ -5109,7 +5113,7 @@
         <v>0</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="H150" s="3">
         <v>1</v>
@@ -5123,7 +5127,7 @@
         <v>40</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>26</v>
@@ -5135,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="H151" s="3">
         <v>1</v>
@@ -5149,7 +5153,7 @@
         <v>40</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>26</v>
@@ -5161,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="H152" s="3">
         <v>1</v>
@@ -5175,7 +5179,7 @@
         <v>40</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>26</v>
@@ -5187,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="H153" s="3">
         <v>1</v>
@@ -5201,7 +5205,7 @@
         <v>40</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>26</v>
@@ -5213,7 +5217,7 @@
         <v>0</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="H154" s="3">
         <v>1</v>

--- a/GameData/Excel/spell_effect.xlsx
+++ b/GameData/Excel/spell_effect.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111C1E99-1F6A-4BED-AF3A-8D273095A115}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA70B1DF-6BC1-48B8-B112-0326F3071541}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8220" yWindow="6390" windowWidth="34560" windowHeight="18795" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="106">
   <si>
     <t>int</t>
   </si>
@@ -398,6 +398,33 @@
   </si>
   <si>
     <t>대미지 타입 효과_지속(5턴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주는 피해량 증가_버프</t>
+  </si>
+  <si>
+    <t>give_damage_up_buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주는 피해량 증가_버프_셀프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 피해량 증가_디버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take_damage_up_buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 피해량 증가_디버프_셀프</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -841,11 +868,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:K308"/>
+  <dimension ref="A1:K428"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B188" sqref="B188"/>
+      <pane ySplit="3" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E282" sqref="E282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -7752,7 +7779,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
         <v>30701</v>
       </c>
@@ -7778,7 +7805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
         <v>30702</v>
       </c>
@@ -7804,7 +7831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="3">
         <v>30703</v>
       </c>
@@ -7830,7 +7857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>30704</v>
       </c>
@@ -7856,7 +7883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
         <v>30705</v>
       </c>
@@ -7882,7 +7909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
         <v>30801</v>
       </c>
@@ -7908,7 +7935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
         <v>30802</v>
       </c>
@@ -7934,7 +7961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
         <v>30803</v>
       </c>
@@ -7960,7 +7987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
         <v>30804</v>
       </c>
@@ -7986,7 +8013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>30805</v>
       </c>
@@ -8012,7 +8039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
         <v>30900</v>
       </c>
@@ -8038,7 +8065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
         <v>31000</v>
       </c>
@@ -8064,24 +8091,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A253" s="1">
-        <v>40100</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>78</v>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A253" s="3">
+        <v>31101</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D253" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E253" s="1">
-        <v>2</v>
+      <c r="D253" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E253" s="3">
+        <v>1</v>
       </c>
       <c r="F253" s="3">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="G253" s="3" t="s">
         <v>72</v>
@@ -8089,25 +8116,28 @@
       <c r="H253" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A254" s="1">
-        <v>40200</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>79</v>
+      <c r="K253" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A254" s="3">
+        <v>31102</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D254" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E254" s="1">
-        <v>0.1</v>
+      <c r="D254" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E254" s="3">
+        <v>2</v>
       </c>
       <c r="F254" s="3">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="G254" s="3" t="s">
         <v>72</v>
@@ -8115,25 +8145,28 @@
       <c r="H254" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A255" s="1">
-        <v>40300</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>80</v>
+      <c r="K254" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A255" s="3">
+        <v>31103</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D255" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E255" s="1">
-        <v>0</v>
+      <c r="D255" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E255" s="3">
+        <v>3</v>
       </c>
       <c r="F255" s="3">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="G255" s="3" t="s">
         <v>72</v>
@@ -8141,25 +8174,28 @@
       <c r="H255" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A256" s="1">
-        <v>40400</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>81</v>
+      <c r="K255" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A256" s="3">
+        <v>31104</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D256" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E256" s="1">
-        <v>0.1</v>
+      <c r="D256" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E256" s="3">
+        <v>4</v>
       </c>
       <c r="F256" s="3">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="G256" s="3" t="s">
         <v>72</v>
@@ -8167,129 +8203,144 @@
       <c r="H256" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A257" s="1">
-        <v>40500</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>33</v>
+      <c r="K256" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A257" s="3">
+        <v>31105</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E257" s="1">
-        <v>0.05</v>
+        <v>69</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E257" s="3">
+        <v>5</v>
       </c>
       <c r="F257" s="3">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H257" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="11">
-        <v>40600</v>
-      </c>
-      <c r="B258" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C258" s="10" t="s">
+      <c r="K257" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A258" s="3">
+        <v>31106</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C258" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D258" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E258" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="F258" s="10">
-        <v>3</v>
-      </c>
-      <c r="G258" s="10" t="s">
+      <c r="D258" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E258" s="3">
+        <v>6</v>
+      </c>
+      <c r="F258" s="3">
+        <v>99</v>
+      </c>
+      <c r="G258" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H258" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="11">
-        <v>40700</v>
-      </c>
-      <c r="B259" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C259" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D259" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E259" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="F259" s="10">
-        <v>3</v>
-      </c>
-      <c r="G259" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H259" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="11">
-        <v>40800</v>
-      </c>
-      <c r="B260" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C260" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D260" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E260" s="11">
-        <v>1</v>
-      </c>
-      <c r="F260" s="10">
-        <v>3</v>
-      </c>
-      <c r="G260" s="10" t="s">
+      <c r="H258" s="3">
+        <v>1</v>
+      </c>
+      <c r="K258" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A259" s="3">
+        <v>31107</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E259" s="3">
+        <v>7</v>
+      </c>
+      <c r="F259" s="3">
+        <v>99</v>
+      </c>
+      <c r="G259" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H260" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A261" s="1">
-        <v>40900</v>
+      <c r="H259" s="3">
+        <v>1</v>
+      </c>
+      <c r="K259" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A260" s="3">
+        <v>31108</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E260" s="3">
+        <v>8</v>
+      </c>
+      <c r="F260" s="3">
+        <v>99</v>
+      </c>
+      <c r="G260" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H260" s="3">
+        <v>1</v>
+      </c>
+      <c r="K260" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A261" s="3">
+        <v>31109</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="E261" s="3">
-        <v>0.2</v>
+        <v>9</v>
       </c>
       <c r="F261" s="3">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="G261" s="3" t="s">
         <v>72</v>
@@ -8297,51 +8348,57 @@
       <c r="H261" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A262" s="1">
-        <v>41000</v>
+      <c r="K261" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A262" s="3">
+        <v>31110</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="E262" s="3">
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="F262" s="3">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="G262" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H262" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A263" s="1">
-        <v>41100</v>
+      <c r="K262" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A263" s="3">
+        <v>31111</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="E263" s="3">
-        <v>0.2</v>
+        <v>11</v>
       </c>
       <c r="F263" s="3">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="G263" s="3" t="s">
         <v>72</v>
@@ -8349,103 +8406,115 @@
       <c r="H263" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A264" s="1">
-        <v>41200</v>
+      <c r="K263" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A264" s="3">
+        <v>31112</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E264" s="3">
-        <v>0.2</v>
+        <v>12</v>
       </c>
       <c r="F264" s="3">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="G264" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H264" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A265" s="1">
-        <v>41300</v>
+      <c r="K264" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A265" s="3">
+        <v>31113</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="E265" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F265" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G265" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H265" s="3">
         <v>1</v>
+      </c>
+      <c r="K265" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="3">
-        <v>50100</v>
+        <v>31114</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E266" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F266" s="3">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="G266" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H266" s="3">
         <v>1</v>
+      </c>
+      <c r="K266" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="3">
-        <v>50200</v>
+        <v>31115</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C267" s="6" t="s">
-        <v>10</v>
+        <v>101</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="E267" s="3">
-        <v>0.3</v>
+        <v>15</v>
       </c>
       <c r="F267" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G267" s="3" t="s">
         <v>72</v>
@@ -8453,25 +8522,28 @@
       <c r="H267" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K267" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
-        <v>100101</v>
+        <v>31116</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D268" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E268" s="1">
-        <v>1</v>
+        <v>101</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E268" s="3">
+        <v>16</v>
       </c>
       <c r="F268" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G268" s="3" t="s">
         <v>72</v>
@@ -8480,30 +8552,30 @@
         <v>1</v>
       </c>
       <c r="K268" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="3">
-        <v>100201</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E269" s="1">
-        <v>1</v>
+        <v>31117</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E269" s="3">
+        <v>17</v>
       </c>
       <c r="F269" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G269" s="3" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="H269" s="3">
         <v>1</v>
@@ -8512,552 +8584,552 @@
         <v>55</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
-        <v>100202</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D270" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E270" s="1">
+        <v>31118</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E270" s="3">
+        <v>18</v>
+      </c>
+      <c r="F270" s="3">
+        <v>99</v>
+      </c>
+      <c r="G270" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H270" s="3">
+        <v>1</v>
+      </c>
+      <c r="K270" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A271" s="3">
+        <v>31119</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E271" s="3">
+        <v>19</v>
+      </c>
+      <c r="F271" s="3">
+        <v>99</v>
+      </c>
+      <c r="G271" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H271" s="3">
+        <v>1</v>
+      </c>
+      <c r="K271" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A272" s="3">
+        <v>31120</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E272" s="3">
+        <v>20</v>
+      </c>
+      <c r="F272" s="3">
+        <v>99</v>
+      </c>
+      <c r="G272" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H272" s="3">
+        <v>1</v>
+      </c>
+      <c r="K272" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A273" s="3">
+        <v>31121</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E273" s="3">
+        <v>21</v>
+      </c>
+      <c r="F273" s="3">
+        <v>99</v>
+      </c>
+      <c r="G273" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H273" s="3">
+        <v>1</v>
+      </c>
+      <c r="K273" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A274" s="3">
+        <v>31122</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E274" s="3">
+        <v>22</v>
+      </c>
+      <c r="F274" s="3">
+        <v>99</v>
+      </c>
+      <c r="G274" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H274" s="3">
+        <v>1</v>
+      </c>
+      <c r="K274" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A275" s="3">
+        <v>31123</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E275" s="3">
+        <v>23</v>
+      </c>
+      <c r="F275" s="3">
+        <v>99</v>
+      </c>
+      <c r="G275" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H275" s="3">
+        <v>1</v>
+      </c>
+      <c r="K275" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A276" s="3">
+        <v>31124</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E276" s="3">
+        <v>24</v>
+      </c>
+      <c r="F276" s="3">
+        <v>99</v>
+      </c>
+      <c r="G276" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H276" s="3">
+        <v>1</v>
+      </c>
+      <c r="K276" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A277" s="3">
+        <v>31125</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E277" s="3">
+        <v>25</v>
+      </c>
+      <c r="F277" s="3">
+        <v>99</v>
+      </c>
+      <c r="G277" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H277" s="3">
+        <v>1</v>
+      </c>
+      <c r="K277" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A278" s="3">
+        <v>31126</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E278" s="3">
+        <v>26</v>
+      </c>
+      <c r="F278" s="3">
+        <v>99</v>
+      </c>
+      <c r="G278" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H278" s="3">
+        <v>1</v>
+      </c>
+      <c r="K278" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A279" s="3">
+        <v>31127</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E279" s="3">
+        <v>27</v>
+      </c>
+      <c r="F279" s="3">
+        <v>99</v>
+      </c>
+      <c r="G279" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H279" s="3">
+        <v>1</v>
+      </c>
+      <c r="K279" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A280" s="3">
+        <v>31128</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E280" s="3">
+        <v>28</v>
+      </c>
+      <c r="F280" s="3">
+        <v>99</v>
+      </c>
+      <c r="G280" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H280" s="3">
+        <v>1</v>
+      </c>
+      <c r="K280" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A281" s="3">
+        <v>31129</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E281" s="3">
+        <v>29</v>
+      </c>
+      <c r="F281" s="3">
+        <v>99</v>
+      </c>
+      <c r="G281" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H281" s="3">
+        <v>1</v>
+      </c>
+      <c r="K281" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A282" s="3">
+        <v>31130</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E282" s="3">
+        <v>30</v>
+      </c>
+      <c r="F282" s="3">
+        <v>99</v>
+      </c>
+      <c r="G282" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H282" s="3">
+        <v>1</v>
+      </c>
+      <c r="K282" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A283" s="3">
+        <v>31201</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E283" s="3">
+        <v>1</v>
+      </c>
+      <c r="F283" s="3">
+        <v>99</v>
+      </c>
+      <c r="G283" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H283" s="3">
+        <v>1</v>
+      </c>
+      <c r="K283" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A284" s="3">
+        <v>31202</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E284" s="3">
         <v>2</v>
       </c>
-      <c r="F270" s="3">
-        <v>0</v>
-      </c>
-      <c r="G270" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H270" s="3">
-        <v>1</v>
-      </c>
-      <c r="K270" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A271" s="3">
-        <v>100203</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E271" s="1">
+      <c r="F284" s="3">
+        <v>99</v>
+      </c>
+      <c r="G284" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H284" s="3">
+        <v>1</v>
+      </c>
+      <c r="K284" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A285" s="3">
+        <v>31203</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E285" s="3">
         <v>3</v>
       </c>
-      <c r="F271" s="3">
-        <v>0</v>
-      </c>
-      <c r="G271" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H271" s="3">
-        <v>1</v>
-      </c>
-      <c r="K271" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A272" s="3">
-        <v>100204</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E272" s="1">
+      <c r="F285" s="3">
+        <v>99</v>
+      </c>
+      <c r="G285" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H285" s="3">
+        <v>1</v>
+      </c>
+      <c r="K285" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A286" s="3">
+        <v>31204</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E286" s="3">
         <v>4</v>
       </c>
-      <c r="F272" s="3">
-        <v>0</v>
-      </c>
-      <c r="G272" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H272" s="3">
-        <v>1</v>
-      </c>
-      <c r="K272" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A273" s="3">
-        <v>100205</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E273" s="1">
+      <c r="F286" s="3">
+        <v>99</v>
+      </c>
+      <c r="G286" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H286" s="3">
+        <v>1</v>
+      </c>
+      <c r="K286" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A287" s="3">
+        <v>31205</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E287" s="3">
         <v>5</v>
       </c>
-      <c r="F273" s="3">
-        <v>0</v>
-      </c>
-      <c r="G273" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H273" s="3">
-        <v>1</v>
-      </c>
-      <c r="K273" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A274" s="3">
-        <v>100206</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E274" s="1">
+      <c r="F287" s="3">
+        <v>99</v>
+      </c>
+      <c r="G287" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H287" s="3">
+        <v>1</v>
+      </c>
+      <c r="K287" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A288" s="3">
+        <v>31206</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E288" s="3">
         <v>6</v>
       </c>
-      <c r="F274" s="3">
-        <v>0</v>
-      </c>
-      <c r="G274" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H274" s="3">
-        <v>1</v>
-      </c>
-      <c r="K274" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A275" s="3">
-        <v>100207</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D275" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E275" s="1">
-        <v>7</v>
-      </c>
-      <c r="F275" s="3">
-        <v>0</v>
-      </c>
-      <c r="G275" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H275" s="3">
-        <v>1</v>
-      </c>
-      <c r="K275" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A276" s="3">
-        <v>100208</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E276" s="1">
-        <v>8</v>
-      </c>
-      <c r="F276" s="3">
-        <v>0</v>
-      </c>
-      <c r="G276" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H276" s="3">
-        <v>1</v>
-      </c>
-      <c r="K276" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A277" s="3">
-        <v>100209</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D277" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E277" s="1">
-        <v>9</v>
-      </c>
-      <c r="F277" s="3">
-        <v>0</v>
-      </c>
-      <c r="G277" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H277" s="3">
-        <v>1</v>
-      </c>
-      <c r="K277" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A278" s="3">
-        <v>100210</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D278" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E278" s="1">
-        <v>10</v>
-      </c>
-      <c r="F278" s="3">
-        <v>0</v>
-      </c>
-      <c r="G278" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H278" s="3">
-        <v>1</v>
-      </c>
-      <c r="K278" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A279" s="3">
-        <v>100301</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D279" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E279" s="1">
-        <v>1</v>
-      </c>
-      <c r="F279" s="3">
-        <v>0</v>
-      </c>
-      <c r="G279" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H279" s="3">
-        <v>2</v>
-      </c>
-      <c r="K279" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A280" s="3">
-        <v>100302</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D280" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E280" s="1">
-        <v>2</v>
-      </c>
-      <c r="F280" s="3">
-        <v>0</v>
-      </c>
-      <c r="G280" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H280" s="3">
-        <v>2</v>
-      </c>
-      <c r="K280" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A281" s="3">
-        <v>100303</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D281" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E281" s="1">
-        <v>3</v>
-      </c>
-      <c r="F281" s="3">
-        <v>0</v>
-      </c>
-      <c r="G281" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H281" s="3">
-        <v>2</v>
-      </c>
-      <c r="K281" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A282" s="3">
-        <v>100304</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D282" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E282" s="1">
-        <v>4</v>
-      </c>
-      <c r="F282" s="3">
-        <v>0</v>
-      </c>
-      <c r="G282" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H282" s="3">
-        <v>2</v>
-      </c>
-      <c r="K282" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A283" s="3">
-        <v>100305</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D283" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E283" s="1">
-        <v>5</v>
-      </c>
-      <c r="F283" s="3">
-        <v>0</v>
-      </c>
-      <c r="G283" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H283" s="3">
-        <v>2</v>
-      </c>
-      <c r="K283" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A284" s="3">
-        <v>100306</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D284" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E284" s="1">
-        <v>6</v>
-      </c>
-      <c r="F284" s="3">
-        <v>0</v>
-      </c>
-      <c r="G284" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H284" s="3">
-        <v>2</v>
-      </c>
-      <c r="K284" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A285" s="3">
-        <v>100307</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D285" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E285" s="1">
-        <v>7</v>
-      </c>
-      <c r="F285" s="3">
-        <v>0</v>
-      </c>
-      <c r="G285" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H285" s="3">
-        <v>2</v>
-      </c>
-      <c r="K285" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A286" s="3">
-        <v>100308</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D286" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E286" s="1">
-        <v>8</v>
-      </c>
-      <c r="F286" s="3">
-        <v>0</v>
-      </c>
-      <c r="G286" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H286" s="3">
-        <v>2</v>
-      </c>
-      <c r="K286" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A287" s="3">
-        <v>100309</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D287" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E287" s="1">
-        <v>9</v>
-      </c>
-      <c r="F287" s="3">
-        <v>0</v>
-      </c>
-      <c r="G287" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H287" s="3">
-        <v>2</v>
-      </c>
-      <c r="K287" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A288" s="3">
-        <v>100310</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D288" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E288" s="1">
-        <v>10</v>
-      </c>
       <c r="F288" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G288" s="3" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="H288" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K288" s="3" t="s">
         <v>55</v>
@@ -9065,25 +9137,25 @@
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
-        <v>130201</v>
+        <v>31207</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="E289" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F289" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G289" s="3" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="H289" s="3">
         <v>1</v>
@@ -9094,25 +9166,25 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="3">
-        <v>130202</v>
+        <v>31208</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="E290" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F290" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G290" s="3" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="H290" s="3">
         <v>1</v>
@@ -9123,25 +9195,25 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="3">
-        <v>130203</v>
+        <v>31209</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="E291" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F291" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G291" s="3" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="H291" s="3">
         <v>1</v>
@@ -9152,25 +9224,25 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="3">
-        <v>130204</v>
+        <v>31210</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="E292" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F292" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G292" s="3" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="H292" s="3">
         <v>1</v>
@@ -9181,25 +9253,25 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="3">
-        <v>130205</v>
+        <v>31211</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="E293" s="3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F293" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G293" s="3" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="H293" s="3">
         <v>1</v>
@@ -9210,25 +9282,25 @@
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="3">
-        <v>130206</v>
+        <v>31212</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="E294" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F294" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G294" s="3" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="H294" s="3">
         <v>1</v>
@@ -9239,25 +9311,25 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="3">
-        <v>130207</v>
+        <v>31213</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="E295" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F295" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G295" s="3" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="H295" s="3">
         <v>1</v>
@@ -9268,25 +9340,25 @@
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="3">
-        <v>130208</v>
+        <v>31214</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="E296" s="3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F296" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G296" s="3" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="H296" s="3">
         <v>1</v>
@@ -9297,25 +9369,25 @@
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="3">
-        <v>130209</v>
+        <v>31215</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="E297" s="3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F297" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G297" s="3" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="H297" s="3">
         <v>1</v>
@@ -9326,25 +9398,25 @@
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="3">
-        <v>130210</v>
+        <v>31216</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="E298" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F298" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G298" s="3" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="H298" s="3">
         <v>1</v>
@@ -9355,25 +9427,25 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="3">
-        <v>130211</v>
+        <v>31217</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="E299" s="3">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F299" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G299" s="3" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="H299" s="3">
         <v>1</v>
@@ -9384,25 +9456,25 @@
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="3">
-        <v>130212</v>
+        <v>31218</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="E300" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F300" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G300" s="3" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="H300" s="3">
         <v>1</v>
@@ -9413,25 +9485,25 @@
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="3">
-        <v>130213</v>
+        <v>31219</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="E301" s="3">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F301" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G301" s="3" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="H301" s="3">
         <v>1</v>
@@ -9442,25 +9514,25 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="3">
-        <v>130214</v>
+        <v>31220</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="E302" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F302" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G302" s="3" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="H302" s="3">
         <v>1</v>
@@ -9471,25 +9543,25 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="3">
-        <v>130215</v>
+        <v>31221</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="E303" s="3">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F303" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G303" s="3" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="H303" s="3">
         <v>1</v>
@@ -9500,25 +9572,25 @@
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="3">
-        <v>130601</v>
+        <v>31222</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="E304" s="3">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F304" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G304" s="3" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="H304" s="3">
         <v>1</v>
@@ -9529,25 +9601,25 @@
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="3">
-        <v>130602</v>
+        <v>31223</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="E305" s="3">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="F305" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G305" s="3" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="H305" s="3">
         <v>1</v>
@@ -9558,25 +9630,25 @@
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="3">
-        <v>130603</v>
+        <v>31224</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="E306" s="3">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F306" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G306" s="3" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="H306" s="3">
         <v>1</v>
@@ -9587,25 +9659,25 @@
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="3">
-        <v>130604</v>
+        <v>31225</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="E307" s="3">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F307" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G307" s="3" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="H307" s="3">
         <v>1</v>
@@ -9616,30 +9688,3465 @@
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="3">
+        <v>31226</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E308" s="3">
+        <v>26</v>
+      </c>
+      <c r="F308" s="3">
+        <v>99</v>
+      </c>
+      <c r="G308" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H308" s="3">
+        <v>1</v>
+      </c>
+      <c r="K308" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A309" s="3">
+        <v>31227</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E309" s="3">
+        <v>27</v>
+      </c>
+      <c r="F309" s="3">
+        <v>99</v>
+      </c>
+      <c r="G309" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H309" s="3">
+        <v>1</v>
+      </c>
+      <c r="K309" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A310" s="3">
+        <v>31228</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E310" s="3">
+        <v>28</v>
+      </c>
+      <c r="F310" s="3">
+        <v>99</v>
+      </c>
+      <c r="G310" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H310" s="3">
+        <v>1</v>
+      </c>
+      <c r="K310" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A311" s="3">
+        <v>31229</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D311" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E311" s="3">
+        <v>29</v>
+      </c>
+      <c r="F311" s="3">
+        <v>99</v>
+      </c>
+      <c r="G311" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H311" s="3">
+        <v>1</v>
+      </c>
+      <c r="K311" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A312" s="3">
+        <v>31230</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E312" s="3">
+        <v>30</v>
+      </c>
+      <c r="F312" s="3">
+        <v>99</v>
+      </c>
+      <c r="G312" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H312" s="3">
+        <v>1</v>
+      </c>
+      <c r="K312" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A313" s="3">
+        <v>31301</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E313" s="3">
+        <v>1</v>
+      </c>
+      <c r="F313" s="3">
+        <v>99</v>
+      </c>
+      <c r="G313" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H313" s="3">
+        <v>1</v>
+      </c>
+      <c r="K313" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A314" s="3">
+        <v>31302</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E314" s="3">
+        <v>2</v>
+      </c>
+      <c r="F314" s="3">
+        <v>99</v>
+      </c>
+      <c r="G314" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H314" s="3">
+        <v>1</v>
+      </c>
+      <c r="K314" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A315" s="3">
+        <v>31303</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E315" s="3">
+        <v>3</v>
+      </c>
+      <c r="F315" s="3">
+        <v>99</v>
+      </c>
+      <c r="G315" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H315" s="3">
+        <v>1</v>
+      </c>
+      <c r="K315" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A316" s="3">
+        <v>31304</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E316" s="3">
+        <v>4</v>
+      </c>
+      <c r="F316" s="3">
+        <v>99</v>
+      </c>
+      <c r="G316" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H316" s="3">
+        <v>1</v>
+      </c>
+      <c r="K316" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A317" s="3">
+        <v>31305</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E317" s="3">
+        <v>5</v>
+      </c>
+      <c r="F317" s="3">
+        <v>99</v>
+      </c>
+      <c r="G317" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H317" s="3">
+        <v>1</v>
+      </c>
+      <c r="K317" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A318" s="3">
+        <v>31306</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E318" s="3">
+        <v>6</v>
+      </c>
+      <c r="F318" s="3">
+        <v>99</v>
+      </c>
+      <c r="G318" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H318" s="3">
+        <v>1</v>
+      </c>
+      <c r="K318" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A319" s="3">
+        <v>31307</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E319" s="3">
+        <v>7</v>
+      </c>
+      <c r="F319" s="3">
+        <v>99</v>
+      </c>
+      <c r="G319" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H319" s="3">
+        <v>1</v>
+      </c>
+      <c r="K319" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A320" s="3">
+        <v>31308</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E320" s="3">
+        <v>8</v>
+      </c>
+      <c r="F320" s="3">
+        <v>99</v>
+      </c>
+      <c r="G320" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H320" s="3">
+        <v>1</v>
+      </c>
+      <c r="K320" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A321" s="3">
+        <v>31309</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E321" s="3">
+        <v>9</v>
+      </c>
+      <c r="F321" s="3">
+        <v>99</v>
+      </c>
+      <c r="G321" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H321" s="3">
+        <v>1</v>
+      </c>
+      <c r="K321" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A322" s="3">
+        <v>31310</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E322" s="3">
+        <v>10</v>
+      </c>
+      <c r="F322" s="3">
+        <v>99</v>
+      </c>
+      <c r="G322" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H322" s="3">
+        <v>1</v>
+      </c>
+      <c r="K322" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A323" s="3">
+        <v>31311</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E323" s="3">
+        <v>11</v>
+      </c>
+      <c r="F323" s="3">
+        <v>99</v>
+      </c>
+      <c r="G323" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H323" s="3">
+        <v>1</v>
+      </c>
+      <c r="K323" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A324" s="3">
+        <v>31312</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E324" s="3">
+        <v>12</v>
+      </c>
+      <c r="F324" s="3">
+        <v>99</v>
+      </c>
+      <c r="G324" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H324" s="3">
+        <v>1</v>
+      </c>
+      <c r="K324" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A325" s="3">
+        <v>31313</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E325" s="3">
+        <v>13</v>
+      </c>
+      <c r="F325" s="3">
+        <v>99</v>
+      </c>
+      <c r="G325" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H325" s="3">
+        <v>1</v>
+      </c>
+      <c r="K325" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A326" s="3">
+        <v>31314</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E326" s="3">
+        <v>14</v>
+      </c>
+      <c r="F326" s="3">
+        <v>99</v>
+      </c>
+      <c r="G326" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H326" s="3">
+        <v>1</v>
+      </c>
+      <c r="K326" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A327" s="3">
+        <v>31315</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E327" s="3">
+        <v>15</v>
+      </c>
+      <c r="F327" s="3">
+        <v>99</v>
+      </c>
+      <c r="G327" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H327" s="3">
+        <v>1</v>
+      </c>
+      <c r="K327" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A328" s="3">
+        <v>31316</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E328" s="3">
+        <v>16</v>
+      </c>
+      <c r="F328" s="3">
+        <v>99</v>
+      </c>
+      <c r="G328" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H328" s="3">
+        <v>1</v>
+      </c>
+      <c r="K328" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A329" s="3">
+        <v>31317</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D329" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E329" s="3">
+        <v>17</v>
+      </c>
+      <c r="F329" s="3">
+        <v>99</v>
+      </c>
+      <c r="G329" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H329" s="3">
+        <v>1</v>
+      </c>
+      <c r="K329" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A330" s="3">
+        <v>31318</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E330" s="3">
+        <v>18</v>
+      </c>
+      <c r="F330" s="3">
+        <v>99</v>
+      </c>
+      <c r="G330" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H330" s="3">
+        <v>1</v>
+      </c>
+      <c r="K330" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A331" s="3">
+        <v>31319</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E331" s="3">
+        <v>19</v>
+      </c>
+      <c r="F331" s="3">
+        <v>99</v>
+      </c>
+      <c r="G331" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H331" s="3">
+        <v>1</v>
+      </c>
+      <c r="K331" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A332" s="3">
+        <v>31320</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E332" s="3">
+        <v>20</v>
+      </c>
+      <c r="F332" s="3">
+        <v>99</v>
+      </c>
+      <c r="G332" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H332" s="3">
+        <v>1</v>
+      </c>
+      <c r="K332" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A333" s="3">
+        <v>31321</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E333" s="3">
+        <v>21</v>
+      </c>
+      <c r="F333" s="3">
+        <v>99</v>
+      </c>
+      <c r="G333" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H333" s="3">
+        <v>1</v>
+      </c>
+      <c r="K333" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A334" s="3">
+        <v>31322</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E334" s="3">
+        <v>22</v>
+      </c>
+      <c r="F334" s="3">
+        <v>99</v>
+      </c>
+      <c r="G334" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H334" s="3">
+        <v>1</v>
+      </c>
+      <c r="K334" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A335" s="3">
+        <v>31323</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D335" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E335" s="3">
+        <v>23</v>
+      </c>
+      <c r="F335" s="3">
+        <v>99</v>
+      </c>
+      <c r="G335" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H335" s="3">
+        <v>1</v>
+      </c>
+      <c r="K335" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A336" s="3">
+        <v>31324</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D336" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E336" s="3">
+        <v>24</v>
+      </c>
+      <c r="F336" s="3">
+        <v>99</v>
+      </c>
+      <c r="G336" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H336" s="3">
+        <v>1</v>
+      </c>
+      <c r="K336" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A337" s="3">
+        <v>31325</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D337" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E337" s="3">
+        <v>25</v>
+      </c>
+      <c r="F337" s="3">
+        <v>99</v>
+      </c>
+      <c r="G337" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H337" s="3">
+        <v>1</v>
+      </c>
+      <c r="K337" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A338" s="3">
+        <v>31326</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E338" s="3">
+        <v>26</v>
+      </c>
+      <c r="F338" s="3">
+        <v>99</v>
+      </c>
+      <c r="G338" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H338" s="3">
+        <v>1</v>
+      </c>
+      <c r="K338" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A339" s="3">
+        <v>31327</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E339" s="3">
+        <v>27</v>
+      </c>
+      <c r="F339" s="3">
+        <v>99</v>
+      </c>
+      <c r="G339" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H339" s="3">
+        <v>1</v>
+      </c>
+      <c r="K339" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A340" s="3">
+        <v>31328</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E340" s="3">
+        <v>28</v>
+      </c>
+      <c r="F340" s="3">
+        <v>99</v>
+      </c>
+      <c r="G340" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H340" s="3">
+        <v>1</v>
+      </c>
+      <c r="K340" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A341" s="3">
+        <v>31329</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E341" s="3">
+        <v>29</v>
+      </c>
+      <c r="F341" s="3">
+        <v>99</v>
+      </c>
+      <c r="G341" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H341" s="3">
+        <v>1</v>
+      </c>
+      <c r="K341" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A342" s="3">
+        <v>31330</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E342" s="3">
+        <v>30</v>
+      </c>
+      <c r="F342" s="3">
+        <v>99</v>
+      </c>
+      <c r="G342" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H342" s="3">
+        <v>1</v>
+      </c>
+      <c r="K342" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A343" s="3">
+        <v>31401</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E343" s="3">
+        <v>1</v>
+      </c>
+      <c r="F343" s="3">
+        <v>99</v>
+      </c>
+      <c r="G343" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H343" s="3">
+        <v>1</v>
+      </c>
+      <c r="K343" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A344" s="3">
+        <v>31402</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E344" s="3">
+        <v>2</v>
+      </c>
+      <c r="F344" s="3">
+        <v>99</v>
+      </c>
+      <c r="G344" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H344" s="3">
+        <v>1</v>
+      </c>
+      <c r="K344" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A345" s="3">
+        <v>31403</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E345" s="3">
+        <v>3</v>
+      </c>
+      <c r="F345" s="3">
+        <v>99</v>
+      </c>
+      <c r="G345" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H345" s="3">
+        <v>1</v>
+      </c>
+      <c r="K345" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A346" s="3">
+        <v>31404</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E346" s="3">
+        <v>4</v>
+      </c>
+      <c r="F346" s="3">
+        <v>99</v>
+      </c>
+      <c r="G346" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H346" s="3">
+        <v>1</v>
+      </c>
+      <c r="K346" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A347" s="3">
+        <v>31405</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E347" s="3">
+        <v>5</v>
+      </c>
+      <c r="F347" s="3">
+        <v>99</v>
+      </c>
+      <c r="G347" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H347" s="3">
+        <v>1</v>
+      </c>
+      <c r="K347" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A348" s="3">
+        <v>31406</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E348" s="3">
+        <v>6</v>
+      </c>
+      <c r="F348" s="3">
+        <v>99</v>
+      </c>
+      <c r="G348" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H348" s="3">
+        <v>1</v>
+      </c>
+      <c r="K348" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A349" s="3">
+        <v>31407</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E349" s="3">
+        <v>7</v>
+      </c>
+      <c r="F349" s="3">
+        <v>99</v>
+      </c>
+      <c r="G349" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H349" s="3">
+        <v>1</v>
+      </c>
+      <c r="K349" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A350" s="3">
+        <v>31408</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E350" s="3">
+        <v>8</v>
+      </c>
+      <c r="F350" s="3">
+        <v>99</v>
+      </c>
+      <c r="G350" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H350" s="3">
+        <v>1</v>
+      </c>
+      <c r="K350" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A351" s="3">
+        <v>31409</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D351" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E351" s="3">
+        <v>9</v>
+      </c>
+      <c r="F351" s="3">
+        <v>99</v>
+      </c>
+      <c r="G351" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H351" s="3">
+        <v>1</v>
+      </c>
+      <c r="K351" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A352" s="3">
+        <v>31410</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D352" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E352" s="3">
+        <v>10</v>
+      </c>
+      <c r="F352" s="3">
+        <v>99</v>
+      </c>
+      <c r="G352" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H352" s="3">
+        <v>1</v>
+      </c>
+      <c r="K352" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A353" s="3">
+        <v>31411</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D353" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E353" s="3">
+        <v>11</v>
+      </c>
+      <c r="F353" s="3">
+        <v>99</v>
+      </c>
+      <c r="G353" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H353" s="3">
+        <v>1</v>
+      </c>
+      <c r="K353" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A354" s="3">
+        <v>31412</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D354" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E354" s="3">
+        <v>12</v>
+      </c>
+      <c r="F354" s="3">
+        <v>99</v>
+      </c>
+      <c r="G354" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H354" s="3">
+        <v>1</v>
+      </c>
+      <c r="K354" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A355" s="3">
+        <v>31413</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D355" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E355" s="3">
+        <v>13</v>
+      </c>
+      <c r="F355" s="3">
+        <v>99</v>
+      </c>
+      <c r="G355" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H355" s="3">
+        <v>1</v>
+      </c>
+      <c r="K355" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A356" s="3">
+        <v>31414</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D356" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E356" s="3">
+        <v>14</v>
+      </c>
+      <c r="F356" s="3">
+        <v>99</v>
+      </c>
+      <c r="G356" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H356" s="3">
+        <v>1</v>
+      </c>
+      <c r="K356" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A357" s="3">
+        <v>31415</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D357" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E357" s="3">
+        <v>15</v>
+      </c>
+      <c r="F357" s="3">
+        <v>99</v>
+      </c>
+      <c r="G357" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H357" s="3">
+        <v>1</v>
+      </c>
+      <c r="K357" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A358" s="3">
+        <v>31416</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D358" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E358" s="3">
+        <v>16</v>
+      </c>
+      <c r="F358" s="3">
+        <v>99</v>
+      </c>
+      <c r="G358" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H358" s="3">
+        <v>1</v>
+      </c>
+      <c r="K358" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A359" s="3">
+        <v>31417</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D359" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E359" s="3">
+        <v>17</v>
+      </c>
+      <c r="F359" s="3">
+        <v>99</v>
+      </c>
+      <c r="G359" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H359" s="3">
+        <v>1</v>
+      </c>
+      <c r="K359" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A360" s="3">
+        <v>31418</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E360" s="3">
+        <v>18</v>
+      </c>
+      <c r="F360" s="3">
+        <v>99</v>
+      </c>
+      <c r="G360" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H360" s="3">
+        <v>1</v>
+      </c>
+      <c r="K360" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A361" s="3">
+        <v>31419</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D361" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E361" s="3">
+        <v>19</v>
+      </c>
+      <c r="F361" s="3">
+        <v>99</v>
+      </c>
+      <c r="G361" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H361" s="3">
+        <v>1</v>
+      </c>
+      <c r="K361" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A362" s="3">
+        <v>31420</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D362" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E362" s="3">
+        <v>20</v>
+      </c>
+      <c r="F362" s="3">
+        <v>99</v>
+      </c>
+      <c r="G362" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H362" s="3">
+        <v>1</v>
+      </c>
+      <c r="K362" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A363" s="3">
+        <v>31421</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E363" s="3">
+        <v>21</v>
+      </c>
+      <c r="F363" s="3">
+        <v>99</v>
+      </c>
+      <c r="G363" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H363" s="3">
+        <v>1</v>
+      </c>
+      <c r="K363" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A364" s="3">
+        <v>31422</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E364" s="3">
+        <v>22</v>
+      </c>
+      <c r="F364" s="3">
+        <v>99</v>
+      </c>
+      <c r="G364" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H364" s="3">
+        <v>1</v>
+      </c>
+      <c r="K364" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A365" s="3">
+        <v>31423</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D365" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E365" s="3">
+        <v>23</v>
+      </c>
+      <c r="F365" s="3">
+        <v>99</v>
+      </c>
+      <c r="G365" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H365" s="3">
+        <v>1</v>
+      </c>
+      <c r="K365" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A366" s="3">
+        <v>31424</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E366" s="3">
+        <v>24</v>
+      </c>
+      <c r="F366" s="3">
+        <v>99</v>
+      </c>
+      <c r="G366" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H366" s="3">
+        <v>1</v>
+      </c>
+      <c r="K366" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A367" s="3">
+        <v>31425</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D367" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E367" s="3">
+        <v>25</v>
+      </c>
+      <c r="F367" s="3">
+        <v>99</v>
+      </c>
+      <c r="G367" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H367" s="3">
+        <v>1</v>
+      </c>
+      <c r="K367" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A368" s="3">
+        <v>31426</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E368" s="3">
+        <v>26</v>
+      </c>
+      <c r="F368" s="3">
+        <v>99</v>
+      </c>
+      <c r="G368" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H368" s="3">
+        <v>1</v>
+      </c>
+      <c r="K368" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A369" s="3">
+        <v>31427</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D369" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E369" s="3">
+        <v>27</v>
+      </c>
+      <c r="F369" s="3">
+        <v>99</v>
+      </c>
+      <c r="G369" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H369" s="3">
+        <v>1</v>
+      </c>
+      <c r="K369" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A370" s="3">
+        <v>31428</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D370" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E370" s="3">
+        <v>28</v>
+      </c>
+      <c r="F370" s="3">
+        <v>99</v>
+      </c>
+      <c r="G370" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H370" s="3">
+        <v>1</v>
+      </c>
+      <c r="K370" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A371" s="3">
+        <v>31429</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D371" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E371" s="3">
+        <v>29</v>
+      </c>
+      <c r="F371" s="3">
+        <v>99</v>
+      </c>
+      <c r="G371" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H371" s="3">
+        <v>1</v>
+      </c>
+      <c r="K371" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A372" s="3">
+        <v>31430</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D372" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E372" s="3">
+        <v>30</v>
+      </c>
+      <c r="F372" s="3">
+        <v>99</v>
+      </c>
+      <c r="G372" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H372" s="3">
+        <v>1</v>
+      </c>
+      <c r="K372" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A373" s="1">
+        <v>40100</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E373" s="1">
+        <v>2</v>
+      </c>
+      <c r="F373" s="3">
+        <v>2</v>
+      </c>
+      <c r="G373" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H373" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A374" s="1">
+        <v>40200</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E374" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F374" s="3">
+        <v>2</v>
+      </c>
+      <c r="G374" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H374" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A375" s="1">
+        <v>40300</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E375" s="1">
+        <v>0</v>
+      </c>
+      <c r="F375" s="3">
+        <v>1</v>
+      </c>
+      <c r="G375" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H375" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A376" s="1">
+        <v>40400</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E376" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F376" s="3">
+        <v>2</v>
+      </c>
+      <c r="G376" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H376" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A377" s="1">
+        <v>40500</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E377" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F377" s="3">
+        <v>2</v>
+      </c>
+      <c r="G377" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H377" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A378" s="11">
+        <v>40600</v>
+      </c>
+      <c r="B378" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C378" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D378" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E378" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="F378" s="10">
+        <v>3</v>
+      </c>
+      <c r="G378" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H378" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A379" s="11">
+        <v>40700</v>
+      </c>
+      <c r="B379" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C379" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D379" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E379" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="F379" s="10">
+        <v>3</v>
+      </c>
+      <c r="G379" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H379" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A380" s="11">
+        <v>40800</v>
+      </c>
+      <c r="B380" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C380" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D380" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E380" s="11">
+        <v>1</v>
+      </c>
+      <c r="F380" s="10">
+        <v>3</v>
+      </c>
+      <c r="G380" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H380" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A381" s="1">
+        <v>40900</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E381" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F381" s="3">
+        <v>4</v>
+      </c>
+      <c r="G381" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H381" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A382" s="1">
+        <v>41000</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D382" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E382" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F382" s="3">
+        <v>1</v>
+      </c>
+      <c r="G382" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H382" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A383" s="1">
+        <v>41100</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D383" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E383" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F383" s="3">
+        <v>4</v>
+      </c>
+      <c r="G383" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H383" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A384" s="1">
+        <v>41200</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D384" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E384" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F384" s="3">
+        <v>1</v>
+      </c>
+      <c r="G384" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H384" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A385" s="1">
+        <v>41300</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D385" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E385" s="3">
+        <v>1</v>
+      </c>
+      <c r="F385" s="3">
+        <v>0</v>
+      </c>
+      <c r="G385" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H385" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A386" s="3">
+        <v>50100</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D386" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E386" s="3">
+        <v>0</v>
+      </c>
+      <c r="F386" s="3">
+        <v>3</v>
+      </c>
+      <c r="G386" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H386" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A387" s="3">
+        <v>50200</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C387" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D387" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E387" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F387" s="3">
+        <v>0</v>
+      </c>
+      <c r="G387" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H387" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A388" s="3">
+        <v>100101</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E388" s="1">
+        <v>1</v>
+      </c>
+      <c r="F388" s="3">
+        <v>0</v>
+      </c>
+      <c r="G388" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H388" s="3">
+        <v>1</v>
+      </c>
+      <c r="K388" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A389" s="3">
+        <v>100201</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E389" s="1">
+        <v>1</v>
+      </c>
+      <c r="F389" s="3">
+        <v>0</v>
+      </c>
+      <c r="G389" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H389" s="3">
+        <v>1</v>
+      </c>
+      <c r="K389" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A390" s="3">
+        <v>100202</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E390" s="1">
+        <v>2</v>
+      </c>
+      <c r="F390" s="3">
+        <v>0</v>
+      </c>
+      <c r="G390" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H390" s="3">
+        <v>1</v>
+      </c>
+      <c r="K390" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A391" s="3">
+        <v>100203</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E391" s="1">
+        <v>3</v>
+      </c>
+      <c r="F391" s="3">
+        <v>0</v>
+      </c>
+      <c r="G391" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H391" s="3">
+        <v>1</v>
+      </c>
+      <c r="K391" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A392" s="3">
+        <v>100204</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E392" s="1">
+        <v>4</v>
+      </c>
+      <c r="F392" s="3">
+        <v>0</v>
+      </c>
+      <c r="G392" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H392" s="3">
+        <v>1</v>
+      </c>
+      <c r="K392" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A393" s="3">
+        <v>100205</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E393" s="1">
+        <v>5</v>
+      </c>
+      <c r="F393" s="3">
+        <v>0</v>
+      </c>
+      <c r="G393" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H393" s="3">
+        <v>1</v>
+      </c>
+      <c r="K393" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A394" s="3">
+        <v>100206</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E394" s="1">
+        <v>6</v>
+      </c>
+      <c r="F394" s="3">
+        <v>0</v>
+      </c>
+      <c r="G394" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H394" s="3">
+        <v>1</v>
+      </c>
+      <c r="K394" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A395" s="3">
+        <v>100207</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E395" s="1">
+        <v>7</v>
+      </c>
+      <c r="F395" s="3">
+        <v>0</v>
+      </c>
+      <c r="G395" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H395" s="3">
+        <v>1</v>
+      </c>
+      <c r="K395" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A396" s="3">
+        <v>100208</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E396" s="1">
+        <v>8</v>
+      </c>
+      <c r="F396" s="3">
+        <v>0</v>
+      </c>
+      <c r="G396" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H396" s="3">
+        <v>1</v>
+      </c>
+      <c r="K396" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A397" s="3">
+        <v>100209</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E397" s="1">
+        <v>9</v>
+      </c>
+      <c r="F397" s="3">
+        <v>0</v>
+      </c>
+      <c r="G397" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H397" s="3">
+        <v>1</v>
+      </c>
+      <c r="K397" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A398" s="3">
+        <v>100210</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E398" s="1">
+        <v>10</v>
+      </c>
+      <c r="F398" s="3">
+        <v>0</v>
+      </c>
+      <c r="G398" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H398" s="3">
+        <v>1</v>
+      </c>
+      <c r="K398" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A399" s="3">
+        <v>100301</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E399" s="1">
+        <v>1</v>
+      </c>
+      <c r="F399" s="3">
+        <v>0</v>
+      </c>
+      <c r="G399" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H399" s="3">
+        <v>2</v>
+      </c>
+      <c r="K399" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A400" s="3">
+        <v>100302</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E400" s="1">
+        <v>2</v>
+      </c>
+      <c r="F400" s="3">
+        <v>0</v>
+      </c>
+      <c r="G400" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H400" s="3">
+        <v>2</v>
+      </c>
+      <c r="K400" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A401" s="3">
+        <v>100303</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E401" s="1">
+        <v>3</v>
+      </c>
+      <c r="F401" s="3">
+        <v>0</v>
+      </c>
+      <c r="G401" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H401" s="3">
+        <v>2</v>
+      </c>
+      <c r="K401" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A402" s="3">
+        <v>100304</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E402" s="1">
+        <v>4</v>
+      </c>
+      <c r="F402" s="3">
+        <v>0</v>
+      </c>
+      <c r="G402" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H402" s="3">
+        <v>2</v>
+      </c>
+      <c r="K402" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A403" s="3">
+        <v>100305</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E403" s="1">
+        <v>5</v>
+      </c>
+      <c r="F403" s="3">
+        <v>0</v>
+      </c>
+      <c r="G403" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H403" s="3">
+        <v>2</v>
+      </c>
+      <c r="K403" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A404" s="3">
+        <v>100306</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E404" s="1">
+        <v>6</v>
+      </c>
+      <c r="F404" s="3">
+        <v>0</v>
+      </c>
+      <c r="G404" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H404" s="3">
+        <v>2</v>
+      </c>
+      <c r="K404" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A405" s="3">
+        <v>100307</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E405" s="1">
+        <v>7</v>
+      </c>
+      <c r="F405" s="3">
+        <v>0</v>
+      </c>
+      <c r="G405" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H405" s="3">
+        <v>2</v>
+      </c>
+      <c r="K405" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A406" s="3">
+        <v>100308</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E406" s="1">
+        <v>8</v>
+      </c>
+      <c r="F406" s="3">
+        <v>0</v>
+      </c>
+      <c r="G406" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H406" s="3">
+        <v>2</v>
+      </c>
+      <c r="K406" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A407" s="3">
+        <v>100309</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E407" s="1">
+        <v>9</v>
+      </c>
+      <c r="F407" s="3">
+        <v>0</v>
+      </c>
+      <c r="G407" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H407" s="3">
+        <v>2</v>
+      </c>
+      <c r="K407" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A408" s="3">
+        <v>100310</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E408" s="1">
+        <v>10</v>
+      </c>
+      <c r="F408" s="3">
+        <v>0</v>
+      </c>
+      <c r="G408" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H408" s="3">
+        <v>2</v>
+      </c>
+      <c r="K408" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A409" s="3">
+        <v>130201</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C409" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D409" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E409" s="3">
+        <v>1</v>
+      </c>
+      <c r="F409" s="3">
+        <v>0</v>
+      </c>
+      <c r="G409" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H409" s="3">
+        <v>1</v>
+      </c>
+      <c r="K409" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A410" s="3">
+        <v>130202</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C410" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D410" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E410" s="3">
+        <v>2</v>
+      </c>
+      <c r="F410" s="3">
+        <v>0</v>
+      </c>
+      <c r="G410" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H410" s="3">
+        <v>1</v>
+      </c>
+      <c r="K410" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A411" s="3">
+        <v>130203</v>
+      </c>
+      <c r="B411" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C411" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D411" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E411" s="3">
+        <v>3</v>
+      </c>
+      <c r="F411" s="3">
+        <v>0</v>
+      </c>
+      <c r="G411" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H411" s="3">
+        <v>1</v>
+      </c>
+      <c r="K411" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A412" s="3">
+        <v>130204</v>
+      </c>
+      <c r="B412" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C412" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D412" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E412" s="3">
+        <v>4</v>
+      </c>
+      <c r="F412" s="3">
+        <v>0</v>
+      </c>
+      <c r="G412" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H412" s="3">
+        <v>1</v>
+      </c>
+      <c r="K412" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A413" s="3">
+        <v>130205</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C413" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D413" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E413" s="3">
+        <v>5</v>
+      </c>
+      <c r="F413" s="3">
+        <v>0</v>
+      </c>
+      <c r="G413" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H413" s="3">
+        <v>1</v>
+      </c>
+      <c r="K413" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A414" s="3">
+        <v>130206</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C414" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D414" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E414" s="3">
+        <v>6</v>
+      </c>
+      <c r="F414" s="3">
+        <v>0</v>
+      </c>
+      <c r="G414" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H414" s="3">
+        <v>1</v>
+      </c>
+      <c r="K414" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A415" s="3">
+        <v>130207</v>
+      </c>
+      <c r="B415" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C415" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D415" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E415" s="3">
+        <v>7</v>
+      </c>
+      <c r="F415" s="3">
+        <v>0</v>
+      </c>
+      <c r="G415" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H415" s="3">
+        <v>1</v>
+      </c>
+      <c r="K415" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A416" s="3">
+        <v>130208</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C416" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D416" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E416" s="3">
+        <v>8</v>
+      </c>
+      <c r="F416" s="3">
+        <v>0</v>
+      </c>
+      <c r="G416" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H416" s="3">
+        <v>1</v>
+      </c>
+      <c r="K416" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A417" s="3">
+        <v>130209</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C417" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D417" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E417" s="3">
+        <v>9</v>
+      </c>
+      <c r="F417" s="3">
+        <v>0</v>
+      </c>
+      <c r="G417" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H417" s="3">
+        <v>1</v>
+      </c>
+      <c r="K417" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A418" s="3">
+        <v>130210</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C418" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D418" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E418" s="3">
+        <v>10</v>
+      </c>
+      <c r="F418" s="3">
+        <v>0</v>
+      </c>
+      <c r="G418" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H418" s="3">
+        <v>1</v>
+      </c>
+      <c r="K418" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A419" s="3">
+        <v>130211</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C419" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D419" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E419" s="3">
+        <v>11</v>
+      </c>
+      <c r="F419" s="3">
+        <v>0</v>
+      </c>
+      <c r="G419" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H419" s="3">
+        <v>1</v>
+      </c>
+      <c r="K419" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A420" s="3">
+        <v>130212</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D420" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E420" s="3">
+        <v>12</v>
+      </c>
+      <c r="F420" s="3">
+        <v>0</v>
+      </c>
+      <c r="G420" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H420" s="3">
+        <v>1</v>
+      </c>
+      <c r="K420" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A421" s="3">
+        <v>130213</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D421" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E421" s="3">
+        <v>13</v>
+      </c>
+      <c r="F421" s="3">
+        <v>0</v>
+      </c>
+      <c r="G421" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H421" s="3">
+        <v>1</v>
+      </c>
+      <c r="K421" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A422" s="3">
+        <v>130214</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D422" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E422" s="3">
+        <v>14</v>
+      </c>
+      <c r="F422" s="3">
+        <v>0</v>
+      </c>
+      <c r="G422" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H422" s="3">
+        <v>1</v>
+      </c>
+      <c r="K422" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A423" s="3">
+        <v>130215</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D423" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E423" s="3">
+        <v>15</v>
+      </c>
+      <c r="F423" s="3">
+        <v>0</v>
+      </c>
+      <c r="G423" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H423" s="3">
+        <v>1</v>
+      </c>
+      <c r="K423" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A424" s="3">
+        <v>130601</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D424" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E424" s="3">
+        <v>1</v>
+      </c>
+      <c r="F424" s="3">
+        <v>0</v>
+      </c>
+      <c r="G424" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H424" s="3">
+        <v>1</v>
+      </c>
+      <c r="K424" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A425" s="3">
+        <v>130602</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C425" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D425" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E425" s="3">
+        <v>2</v>
+      </c>
+      <c r="F425" s="3">
+        <v>0</v>
+      </c>
+      <c r="G425" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H425" s="3">
+        <v>1</v>
+      </c>
+      <c r="K425" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A426" s="3">
+        <v>130603</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D426" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E426" s="3">
+        <v>3</v>
+      </c>
+      <c r="F426" s="3">
+        <v>0</v>
+      </c>
+      <c r="G426" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H426" s="3">
+        <v>1</v>
+      </c>
+      <c r="K426" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A427" s="3">
+        <v>130604</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D427" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E427" s="3">
+        <v>4</v>
+      </c>
+      <c r="F427" s="3">
+        <v>0</v>
+      </c>
+      <c r="G427" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H427" s="3">
+        <v>1</v>
+      </c>
+      <c r="K427" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A428" s="3">
         <v>130605</v>
       </c>
-      <c r="B308" s="3" t="s">
+      <c r="B428" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C308" s="3" t="s">
+      <c r="C428" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D308" s="3" t="s">
+      <c r="D428" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E308" s="3">
+      <c r="E428" s="3">
         <v>5</v>
       </c>
-      <c r="F308" s="3">
-        <v>0</v>
-      </c>
-      <c r="G308" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H308" s="3">
-        <v>1</v>
-      </c>
-      <c r="K308" s="3" t="s">
+      <c r="F428" s="3">
+        <v>0</v>
+      </c>
+      <c r="G428" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H428" s="3">
+        <v>1</v>
+      </c>
+      <c r="K428" s="3" t="s">
         <v>55</v>
       </c>
     </row>

--- a/GameData/Excel/spell_effect.xlsx
+++ b/GameData/Excel/spell_effect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA70B1DF-6BC1-48B8-B112-0326F3071541}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D7C418-AEBE-4A9F-90D3-4A6F4FF1C1D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8220" yWindow="6390" windowWidth="34560" windowHeight="18795" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="109">
   <si>
     <t>int</t>
   </si>
@@ -401,9 +401,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주는 피해량 증가_버프</t>
-  </si>
-  <si>
     <t>give_damage_up_buff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -412,19 +409,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>받는 피해량 증가_디버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>take_damage_up_buff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enemy</t>
+    <t>받는 피해량 증가_디버프_셀프</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>받는 피해량 증가_디버프_셀프</t>
+    <t>주는 피해량 고정 증가_버프_셀프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give_damage_up_fixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주는 피해량 고정 증가_버프_아군전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ally_all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 피해량 증가_디버프_적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주는 피해량 증가_버프_적</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -868,11 +881,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:K428"/>
+  <dimension ref="A1:K488"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E282" sqref="E282"/>
+      <pane ySplit="3" topLeftCell="A321" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G342" sqref="G342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -8096,13 +8109,13 @@
         <v>31101</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E253" s="3">
         <v>1</v>
@@ -8125,13 +8138,13 @@
         <v>31102</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E254" s="3">
         <v>2</v>
@@ -8154,13 +8167,13 @@
         <v>31103</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E255" s="3">
         <v>3</v>
@@ -8183,13 +8196,13 @@
         <v>31104</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E256" s="3">
         <v>4</v>
@@ -8212,13 +8225,13 @@
         <v>31105</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E257" s="3">
         <v>5</v>
@@ -8241,13 +8254,13 @@
         <v>31106</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E258" s="3">
         <v>6</v>
@@ -8270,13 +8283,13 @@
         <v>31107</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E259" s="3">
         <v>7</v>
@@ -8299,13 +8312,13 @@
         <v>31108</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E260" s="3">
         <v>8</v>
@@ -8328,13 +8341,13 @@
         <v>31109</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E261" s="3">
         <v>9</v>
@@ -8357,13 +8370,13 @@
         <v>31110</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E262" s="3">
         <v>10</v>
@@ -8386,13 +8399,13 @@
         <v>31111</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E263" s="3">
         <v>11</v>
@@ -8415,13 +8428,13 @@
         <v>31112</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E264" s="3">
         <v>12</v>
@@ -8444,13 +8457,13 @@
         <v>31113</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E265" s="3">
         <v>13</v>
@@ -8473,13 +8486,13 @@
         <v>31114</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E266" s="3">
         <v>14</v>
@@ -8502,13 +8515,13 @@
         <v>31115</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E267" s="3">
         <v>15</v>
@@ -8531,13 +8544,13 @@
         <v>31116</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E268" s="3">
         <v>16</v>
@@ -8560,13 +8573,13 @@
         <v>31117</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E269" s="3">
         <v>17</v>
@@ -8589,13 +8602,13 @@
         <v>31118</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E270" s="3">
         <v>18</v>
@@ -8618,13 +8631,13 @@
         <v>31119</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E271" s="3">
         <v>19</v>
@@ -8647,13 +8660,13 @@
         <v>31120</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E272" s="3">
         <v>20</v>
@@ -8676,13 +8689,13 @@
         <v>31121</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E273" s="3">
         <v>21</v>
@@ -8705,13 +8718,13 @@
         <v>31122</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E274" s="3">
         <v>22</v>
@@ -8734,13 +8747,13 @@
         <v>31123</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E275" s="3">
         <v>23</v>
@@ -8763,13 +8776,13 @@
         <v>31124</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E276" s="3">
         <v>24</v>
@@ -8792,13 +8805,13 @@
         <v>31125</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E277" s="3">
         <v>25</v>
@@ -8821,13 +8834,13 @@
         <v>31126</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E278" s="3">
         <v>26</v>
@@ -8850,13 +8863,13 @@
         <v>31127</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E279" s="3">
         <v>27</v>
@@ -8879,13 +8892,13 @@
         <v>31128</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E280" s="3">
         <v>28</v>
@@ -8908,13 +8921,13 @@
         <v>31129</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E281" s="3">
         <v>29</v>
@@ -8937,13 +8950,13 @@
         <v>31130</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E282" s="3">
         <v>30</v>
@@ -8966,13 +8979,13 @@
         <v>31201</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E283" s="3">
         <v>1</v>
@@ -8981,7 +8994,7 @@
         <v>99</v>
       </c>
       <c r="G283" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="H283" s="3">
         <v>1</v>
@@ -8995,13 +9008,13 @@
         <v>31202</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E284" s="3">
         <v>2</v>
@@ -9010,7 +9023,7 @@
         <v>99</v>
       </c>
       <c r="G284" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="H284" s="3">
         <v>1</v>
@@ -9024,13 +9037,13 @@
         <v>31203</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E285" s="3">
         <v>3</v>
@@ -9039,7 +9052,7 @@
         <v>99</v>
       </c>
       <c r="G285" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="H285" s="3">
         <v>1</v>
@@ -9053,13 +9066,13 @@
         <v>31204</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E286" s="3">
         <v>4</v>
@@ -9068,7 +9081,7 @@
         <v>99</v>
       </c>
       <c r="G286" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="H286" s="3">
         <v>1</v>
@@ -9082,13 +9095,13 @@
         <v>31205</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E287" s="3">
         <v>5</v>
@@ -9097,7 +9110,7 @@
         <v>99</v>
       </c>
       <c r="G287" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="H287" s="3">
         <v>1</v>
@@ -9111,13 +9124,13 @@
         <v>31206</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E288" s="3">
         <v>6</v>
@@ -9126,7 +9139,7 @@
         <v>99</v>
       </c>
       <c r="G288" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="H288" s="3">
         <v>1</v>
@@ -9140,13 +9153,13 @@
         <v>31207</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E289" s="3">
         <v>7</v>
@@ -9155,7 +9168,7 @@
         <v>99</v>
       </c>
       <c r="G289" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="H289" s="3">
         <v>1</v>
@@ -9169,13 +9182,13 @@
         <v>31208</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E290" s="3">
         <v>8</v>
@@ -9184,7 +9197,7 @@
         <v>99</v>
       </c>
       <c r="G290" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="H290" s="3">
         <v>1</v>
@@ -9198,13 +9211,13 @@
         <v>31209</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E291" s="3">
         <v>9</v>
@@ -9213,7 +9226,7 @@
         <v>99</v>
       </c>
       <c r="G291" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="H291" s="3">
         <v>1</v>
@@ -9227,13 +9240,13 @@
         <v>31210</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E292" s="3">
         <v>10</v>
@@ -9242,7 +9255,7 @@
         <v>99</v>
       </c>
       <c r="G292" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="H292" s="3">
         <v>1</v>
@@ -9256,13 +9269,13 @@
         <v>31211</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E293" s="3">
         <v>11</v>
@@ -9271,7 +9284,7 @@
         <v>99</v>
       </c>
       <c r="G293" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="H293" s="3">
         <v>1</v>
@@ -9285,13 +9298,13 @@
         <v>31212</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E294" s="3">
         <v>12</v>
@@ -9300,7 +9313,7 @@
         <v>99</v>
       </c>
       <c r="G294" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="H294" s="3">
         <v>1</v>
@@ -9314,13 +9327,13 @@
         <v>31213</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E295" s="3">
         <v>13</v>
@@ -9329,7 +9342,7 @@
         <v>99</v>
       </c>
       <c r="G295" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="H295" s="3">
         <v>1</v>
@@ -9343,13 +9356,13 @@
         <v>31214</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E296" s="3">
         <v>14</v>
@@ -9358,7 +9371,7 @@
         <v>99</v>
       </c>
       <c r="G296" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="H296" s="3">
         <v>1</v>
@@ -9372,13 +9385,13 @@
         <v>31215</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E297" s="3">
         <v>15</v>
@@ -9387,7 +9400,7 @@
         <v>99</v>
       </c>
       <c r="G297" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="H297" s="3">
         <v>1</v>
@@ -9401,13 +9414,13 @@
         <v>31216</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E298" s="3">
         <v>16</v>
@@ -9416,7 +9429,7 @@
         <v>99</v>
       </c>
       <c r="G298" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="H298" s="3">
         <v>1</v>
@@ -9430,13 +9443,13 @@
         <v>31217</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E299" s="3">
         <v>17</v>
@@ -9445,7 +9458,7 @@
         <v>99</v>
       </c>
       <c r="G299" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="H299" s="3">
         <v>1</v>
@@ -9459,13 +9472,13 @@
         <v>31218</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E300" s="3">
         <v>18</v>
@@ -9474,7 +9487,7 @@
         <v>99</v>
       </c>
       <c r="G300" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="H300" s="3">
         <v>1</v>
@@ -9488,13 +9501,13 @@
         <v>31219</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E301" s="3">
         <v>19</v>
@@ -9503,7 +9516,7 @@
         <v>99</v>
       </c>
       <c r="G301" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="H301" s="3">
         <v>1</v>
@@ -9517,13 +9530,13 @@
         <v>31220</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E302" s="3">
         <v>20</v>
@@ -9532,7 +9545,7 @@
         <v>99</v>
       </c>
       <c r="G302" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="H302" s="3">
         <v>1</v>
@@ -9546,13 +9559,13 @@
         <v>31221</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E303" s="3">
         <v>21</v>
@@ -9561,7 +9574,7 @@
         <v>99</v>
       </c>
       <c r="G303" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="H303" s="3">
         <v>1</v>
@@ -9575,13 +9588,13 @@
         <v>31222</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E304" s="3">
         <v>22</v>
@@ -9590,7 +9603,7 @@
         <v>99</v>
       </c>
       <c r="G304" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="H304" s="3">
         <v>1</v>
@@ -9604,13 +9617,13 @@
         <v>31223</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E305" s="3">
         <v>23</v>
@@ -9619,7 +9632,7 @@
         <v>99</v>
       </c>
       <c r="G305" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="H305" s="3">
         <v>1</v>
@@ -9633,13 +9646,13 @@
         <v>31224</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E306" s="3">
         <v>24</v>
@@ -9648,7 +9661,7 @@
         <v>99</v>
       </c>
       <c r="G306" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="H306" s="3">
         <v>1</v>
@@ -9662,13 +9675,13 @@
         <v>31225</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E307" s="3">
         <v>25</v>
@@ -9677,7 +9690,7 @@
         <v>99</v>
       </c>
       <c r="G307" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="H307" s="3">
         <v>1</v>
@@ -9691,13 +9704,13 @@
         <v>31226</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E308" s="3">
         <v>26</v>
@@ -9706,7 +9719,7 @@
         <v>99</v>
       </c>
       <c r="G308" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="H308" s="3">
         <v>1</v>
@@ -9720,13 +9733,13 @@
         <v>31227</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E309" s="3">
         <v>27</v>
@@ -9735,7 +9748,7 @@
         <v>99</v>
       </c>
       <c r="G309" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="H309" s="3">
         <v>1</v>
@@ -9749,13 +9762,13 @@
         <v>31228</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E310" s="3">
         <v>28</v>
@@ -9764,7 +9777,7 @@
         <v>99</v>
       </c>
       <c r="G310" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="H310" s="3">
         <v>1</v>
@@ -9778,13 +9791,13 @@
         <v>31229</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E311" s="3">
         <v>29</v>
@@ -9793,7 +9806,7 @@
         <v>99</v>
       </c>
       <c r="G311" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="H311" s="3">
         <v>1</v>
@@ -9807,13 +9820,13 @@
         <v>31230</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E312" s="3">
         <v>30</v>
@@ -9822,7 +9835,7 @@
         <v>99</v>
       </c>
       <c r="G312" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="H312" s="3">
         <v>1</v>
@@ -9836,13 +9849,13 @@
         <v>31301</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E313" s="3">
         <v>1</v>
@@ -9865,13 +9878,13 @@
         <v>31302</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E314" s="3">
         <v>2</v>
@@ -9894,13 +9907,13 @@
         <v>31303</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E315" s="3">
         <v>3</v>
@@ -9923,13 +9936,13 @@
         <v>31304</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E316" s="3">
         <v>4</v>
@@ -9952,13 +9965,13 @@
         <v>31305</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E317" s="3">
         <v>5</v>
@@ -9981,13 +9994,13 @@
         <v>31306</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E318" s="3">
         <v>6</v>
@@ -10010,13 +10023,13 @@
         <v>31307</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E319" s="3">
         <v>7</v>
@@ -10039,13 +10052,13 @@
         <v>31308</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E320" s="3">
         <v>8</v>
@@ -10068,13 +10081,13 @@
         <v>31309</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E321" s="3">
         <v>9</v>
@@ -10097,13 +10110,13 @@
         <v>31310</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E322" s="3">
         <v>10</v>
@@ -10126,13 +10139,13 @@
         <v>31311</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E323" s="3">
         <v>11</v>
@@ -10155,13 +10168,13 @@
         <v>31312</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E324" s="3">
         <v>12</v>
@@ -10184,13 +10197,13 @@
         <v>31313</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E325" s="3">
         <v>13</v>
@@ -10213,13 +10226,13 @@
         <v>31314</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E326" s="3">
         <v>14</v>
@@ -10242,13 +10255,13 @@
         <v>31315</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E327" s="3">
         <v>15</v>
@@ -10271,13 +10284,13 @@
         <v>31316</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E328" s="3">
         <v>16</v>
@@ -10300,13 +10313,13 @@
         <v>31317</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E329" s="3">
         <v>17</v>
@@ -10329,13 +10342,13 @@
         <v>31318</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E330" s="3">
         <v>18</v>
@@ -10358,13 +10371,13 @@
         <v>31319</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E331" s="3">
         <v>19</v>
@@ -10387,13 +10400,13 @@
         <v>31320</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E332" s="3">
         <v>20</v>
@@ -10416,13 +10429,13 @@
         <v>31321</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E333" s="3">
         <v>21</v>
@@ -10445,13 +10458,13 @@
         <v>31322</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E334" s="3">
         <v>22</v>
@@ -10474,13 +10487,13 @@
         <v>31323</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E335" s="3">
         <v>23</v>
@@ -10503,13 +10516,13 @@
         <v>31324</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E336" s="3">
         <v>24</v>
@@ -10532,13 +10545,13 @@
         <v>31325</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E337" s="3">
         <v>25</v>
@@ -10561,13 +10574,13 @@
         <v>31326</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E338" s="3">
         <v>26</v>
@@ -10590,13 +10603,13 @@
         <v>31327</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E339" s="3">
         <v>27</v>
@@ -10619,13 +10632,13 @@
         <v>31328</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E340" s="3">
         <v>28</v>
@@ -10648,13 +10661,13 @@
         <v>31329</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E341" s="3">
         <v>29</v>
@@ -10677,13 +10690,13 @@
         <v>31330</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E342" s="3">
         <v>30</v>
@@ -10706,13 +10719,13 @@
         <v>31401</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E343" s="3">
         <v>1</v>
@@ -10735,13 +10748,13 @@
         <v>31402</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E344" s="3">
         <v>2</v>
@@ -10764,13 +10777,13 @@
         <v>31403</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E345" s="3">
         <v>3</v>
@@ -10793,13 +10806,13 @@
         <v>31404</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E346" s="3">
         <v>4</v>
@@ -10822,13 +10835,13 @@
         <v>31405</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E347" s="3">
         <v>5</v>
@@ -10851,13 +10864,13 @@
         <v>31406</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E348" s="3">
         <v>6</v>
@@ -10880,13 +10893,13 @@
         <v>31407</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E349" s="3">
         <v>7</v>
@@ -10909,13 +10922,13 @@
         <v>31408</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E350" s="3">
         <v>8</v>
@@ -10938,13 +10951,13 @@
         <v>31409</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E351" s="3">
         <v>9</v>
@@ -10967,13 +10980,13 @@
         <v>31410</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E352" s="3">
         <v>10</v>
@@ -10996,13 +11009,13 @@
         <v>31411</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E353" s="3">
         <v>11</v>
@@ -11025,13 +11038,13 @@
         <v>31412</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E354" s="3">
         <v>12</v>
@@ -11054,13 +11067,13 @@
         <v>31413</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E355" s="3">
         <v>13</v>
@@ -11083,13 +11096,13 @@
         <v>31414</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D356" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E356" s="3">
         <v>14</v>
@@ -11112,13 +11125,13 @@
         <v>31415</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E357" s="3">
         <v>15</v>
@@ -11141,13 +11154,13 @@
         <v>31416</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E358" s="3">
         <v>16</v>
@@ -11170,13 +11183,13 @@
         <v>31417</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D359" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E359" s="3">
         <v>17</v>
@@ -11199,13 +11212,13 @@
         <v>31418</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E360" s="3">
         <v>18</v>
@@ -11228,13 +11241,13 @@
         <v>31419</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E361" s="3">
         <v>19</v>
@@ -11257,13 +11270,13 @@
         <v>31420</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D362" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E362" s="3">
         <v>20</v>
@@ -11286,13 +11299,13 @@
         <v>31421</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D363" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E363" s="3">
         <v>21</v>
@@ -11315,13 +11328,13 @@
         <v>31422</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E364" s="3">
         <v>22</v>
@@ -11344,13 +11357,13 @@
         <v>31423</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D365" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E365" s="3">
         <v>23</v>
@@ -11373,13 +11386,13 @@
         <v>31424</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E366" s="3">
         <v>24</v>
@@ -11402,13 +11415,13 @@
         <v>31425</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D367" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E367" s="3">
         <v>25</v>
@@ -11431,13 +11444,13 @@
         <v>31426</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E368" s="3">
         <v>26</v>
@@ -11460,13 +11473,13 @@
         <v>31427</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E369" s="3">
         <v>27</v>
@@ -11489,13 +11502,13 @@
         <v>31428</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D370" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E370" s="3">
         <v>28</v>
@@ -11518,13 +11531,13 @@
         <v>31429</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E371" s="3">
         <v>29</v>
@@ -11547,13 +11560,13 @@
         <v>31430</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D372" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E372" s="3">
         <v>30</v>
@@ -11571,24 +11584,24 @@
         <v>55</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A373" s="1">
-        <v>40100</v>
-      </c>
-      <c r="B373" s="1" t="s">
-        <v>78</v>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A373" s="3">
+        <v>31501</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D373" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E373" s="1">
-        <v>2</v>
+      <c r="D373" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E373" s="3">
+        <v>1</v>
       </c>
       <c r="F373" s="3">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="G373" s="3" t="s">
         <v>72</v>
@@ -11596,25 +11609,28 @@
       <c r="H373" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A374" s="1">
-        <v>40200</v>
-      </c>
-      <c r="B374" s="1" t="s">
-        <v>79</v>
+      <c r="K373" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A374" s="3">
+        <v>31502</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D374" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E374" s="1">
-        <v>0.1</v>
+      <c r="D374" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E374" s="3">
+        <v>2</v>
       </c>
       <c r="F374" s="3">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="G374" s="3" t="s">
         <v>72</v>
@@ -11622,25 +11638,28 @@
       <c r="H374" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A375" s="1">
-        <v>40300</v>
-      </c>
-      <c r="B375" s="1" t="s">
-        <v>80</v>
+      <c r="K374" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A375" s="3">
+        <v>31503</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D375" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E375" s="1">
-        <v>0</v>
+      <c r="D375" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E375" s="3">
+        <v>3</v>
       </c>
       <c r="F375" s="3">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="G375" s="3" t="s">
         <v>72</v>
@@ -11648,25 +11667,28 @@
       <c r="H375" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A376" s="1">
-        <v>40400</v>
-      </c>
-      <c r="B376" s="1" t="s">
-        <v>81</v>
+      <c r="K375" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A376" s="3">
+        <v>31504</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D376" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E376" s="1">
-        <v>0.1</v>
+      <c r="D376" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E376" s="3">
+        <v>4</v>
       </c>
       <c r="F376" s="3">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="G376" s="3" t="s">
         <v>72</v>
@@ -11674,129 +11696,144 @@
       <c r="H376" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A377" s="1">
-        <v>40500</v>
-      </c>
-      <c r="B377" s="1" t="s">
-        <v>33</v>
+      <c r="K376" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A377" s="3">
+        <v>31505</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D377" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E377" s="1">
-        <v>0.05</v>
+        <v>69</v>
+      </c>
+      <c r="D377" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E377" s="3">
+        <v>5</v>
       </c>
       <c r="F377" s="3">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="G377" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H377" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="378" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A378" s="11">
-        <v>40600</v>
-      </c>
-      <c r="B378" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C378" s="10" t="s">
+      <c r="K377" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A378" s="3">
+        <v>31506</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C378" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D378" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E378" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="F378" s="10">
-        <v>3</v>
-      </c>
-      <c r="G378" s="10" t="s">
+      <c r="D378" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E378" s="3">
+        <v>6</v>
+      </c>
+      <c r="F378" s="3">
+        <v>99</v>
+      </c>
+      <c r="G378" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H378" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A379" s="11">
-        <v>40700</v>
-      </c>
-      <c r="B379" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C379" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D379" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E379" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="F379" s="10">
-        <v>3</v>
-      </c>
-      <c r="G379" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H379" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="380" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A380" s="11">
-        <v>40800</v>
-      </c>
-      <c r="B380" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C380" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D380" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E380" s="11">
-        <v>1</v>
-      </c>
-      <c r="F380" s="10">
-        <v>3</v>
-      </c>
-      <c r="G380" s="10" t="s">
+      <c r="H378" s="3">
+        <v>1</v>
+      </c>
+      <c r="K378" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A379" s="3">
+        <v>31507</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D379" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E379" s="3">
+        <v>7</v>
+      </c>
+      <c r="F379" s="3">
+        <v>99</v>
+      </c>
+      <c r="G379" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H380" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A381" s="1">
-        <v>40900</v>
+      <c r="H379" s="3">
+        <v>1</v>
+      </c>
+      <c r="K379" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A380" s="3">
+        <v>31508</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C380" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E380" s="3">
+        <v>8</v>
+      </c>
+      <c r="F380" s="3">
+        <v>99</v>
+      </c>
+      <c r="G380" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H380" s="3">
+        <v>1</v>
+      </c>
+      <c r="K380" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A381" s="3">
+        <v>31509</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D381" s="3" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="E381" s="3">
-        <v>0.2</v>
+        <v>9</v>
       </c>
       <c r="F381" s="3">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="G381" s="3" t="s">
         <v>72</v>
@@ -11804,51 +11841,57 @@
       <c r="H381" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A382" s="1">
-        <v>41000</v>
+      <c r="K381" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A382" s="3">
+        <v>31510</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D382" s="3" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="E382" s="3">
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="F382" s="3">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="G382" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H382" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A383" s="1">
-        <v>41100</v>
+      <c r="K382" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A383" s="3">
+        <v>31511</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="E383" s="3">
-        <v>0.2</v>
+        <v>11</v>
       </c>
       <c r="F383" s="3">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="G383" s="3" t="s">
         <v>72</v>
@@ -11856,103 +11899,115 @@
       <c r="H383" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A384" s="1">
-        <v>41200</v>
+      <c r="K383" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A384" s="3">
+        <v>31512</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="E384" s="3">
-        <v>0.2</v>
+        <v>12</v>
       </c>
       <c r="F384" s="3">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="G384" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H384" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A385" s="1">
-        <v>41300</v>
+      <c r="K384" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A385" s="3">
+        <v>31513</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="E385" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F385" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G385" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H385" s="3">
         <v>1</v>
+      </c>
+      <c r="K385" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="3">
-        <v>50100</v>
+        <v>31514</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="E386" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F386" s="3">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="G386" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H386" s="3">
         <v>1</v>
+      </c>
+      <c r="K386" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="3">
-        <v>50200</v>
+        <v>31515</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C387" s="6" t="s">
-        <v>10</v>
+        <v>103</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="E387" s="3">
-        <v>0.3</v>
+        <v>15</v>
       </c>
       <c r="F387" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G387" s="3" t="s">
         <v>72</v>
@@ -11960,25 +12015,28 @@
       <c r="H387" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K387" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="3">
-        <v>100101</v>
+        <v>31516</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C388" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D388" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E388" s="1">
-        <v>1</v>
+        <v>103</v>
+      </c>
+      <c r="C388" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D388" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E388" s="3">
+        <v>16</v>
       </c>
       <c r="F388" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G388" s="3" t="s">
         <v>72</v>
@@ -11987,30 +12045,30 @@
         <v>1</v>
       </c>
       <c r="K388" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="3">
-        <v>100201</v>
-      </c>
-      <c r="B389" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C389" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D389" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E389" s="1">
-        <v>1</v>
+        <v>31517</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C389" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D389" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E389" s="3">
+        <v>17</v>
       </c>
       <c r="F389" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G389" s="3" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="H389" s="3">
         <v>1</v>
@@ -12019,552 +12077,552 @@
         <v>55</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="3">
-        <v>100202</v>
-      </c>
-      <c r="B390" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C390" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D390" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E390" s="1">
+        <v>31518</v>
+      </c>
+      <c r="B390" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C390" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D390" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E390" s="3">
+        <v>18</v>
+      </c>
+      <c r="F390" s="3">
+        <v>99</v>
+      </c>
+      <c r="G390" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H390" s="3">
+        <v>1</v>
+      </c>
+      <c r="K390" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A391" s="3">
+        <v>31519</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C391" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D391" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E391" s="3">
+        <v>19</v>
+      </c>
+      <c r="F391" s="3">
+        <v>99</v>
+      </c>
+      <c r="G391" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H391" s="3">
+        <v>1</v>
+      </c>
+      <c r="K391" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A392" s="3">
+        <v>31520</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C392" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D392" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E392" s="3">
+        <v>20</v>
+      </c>
+      <c r="F392" s="3">
+        <v>99</v>
+      </c>
+      <c r="G392" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H392" s="3">
+        <v>1</v>
+      </c>
+      <c r="K392" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A393" s="3">
+        <v>31521</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C393" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D393" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E393" s="3">
+        <v>21</v>
+      </c>
+      <c r="F393" s="3">
+        <v>99</v>
+      </c>
+      <c r="G393" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H393" s="3">
+        <v>1</v>
+      </c>
+      <c r="K393" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A394" s="3">
+        <v>31522</v>
+      </c>
+      <c r="B394" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C394" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D394" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E394" s="3">
+        <v>22</v>
+      </c>
+      <c r="F394" s="3">
+        <v>99</v>
+      </c>
+      <c r="G394" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H394" s="3">
+        <v>1</v>
+      </c>
+      <c r="K394" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A395" s="3">
+        <v>31523</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C395" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D395" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E395" s="3">
+        <v>23</v>
+      </c>
+      <c r="F395" s="3">
+        <v>99</v>
+      </c>
+      <c r="G395" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H395" s="3">
+        <v>1</v>
+      </c>
+      <c r="K395" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A396" s="3">
+        <v>31524</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C396" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D396" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E396" s="3">
+        <v>24</v>
+      </c>
+      <c r="F396" s="3">
+        <v>99</v>
+      </c>
+      <c r="G396" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H396" s="3">
+        <v>1</v>
+      </c>
+      <c r="K396" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A397" s="3">
+        <v>31525</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C397" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D397" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E397" s="3">
+        <v>25</v>
+      </c>
+      <c r="F397" s="3">
+        <v>99</v>
+      </c>
+      <c r="G397" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H397" s="3">
+        <v>1</v>
+      </c>
+      <c r="K397" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A398" s="3">
+        <v>31526</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C398" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D398" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E398" s="3">
+        <v>26</v>
+      </c>
+      <c r="F398" s="3">
+        <v>99</v>
+      </c>
+      <c r="G398" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H398" s="3">
+        <v>1</v>
+      </c>
+      <c r="K398" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A399" s="3">
+        <v>31527</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D399" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E399" s="3">
+        <v>27</v>
+      </c>
+      <c r="F399" s="3">
+        <v>99</v>
+      </c>
+      <c r="G399" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H399" s="3">
+        <v>1</v>
+      </c>
+      <c r="K399" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A400" s="3">
+        <v>31528</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C400" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D400" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E400" s="3">
+        <v>28</v>
+      </c>
+      <c r="F400" s="3">
+        <v>99</v>
+      </c>
+      <c r="G400" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H400" s="3">
+        <v>1</v>
+      </c>
+      <c r="K400" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A401" s="3">
+        <v>31529</v>
+      </c>
+      <c r="B401" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C401" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D401" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E401" s="3">
+        <v>29</v>
+      </c>
+      <c r="F401" s="3">
+        <v>99</v>
+      </c>
+      <c r="G401" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H401" s="3">
+        <v>1</v>
+      </c>
+      <c r="K401" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A402" s="3">
+        <v>31530</v>
+      </c>
+      <c r="B402" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C402" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D402" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E402" s="3">
+        <v>30</v>
+      </c>
+      <c r="F402" s="3">
+        <v>99</v>
+      </c>
+      <c r="G402" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H402" s="3">
+        <v>1</v>
+      </c>
+      <c r="K402" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A403" s="3">
+        <v>31601</v>
+      </c>
+      <c r="B403" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C403" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D403" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E403" s="3">
+        <v>1</v>
+      </c>
+      <c r="F403" s="3">
+        <v>99</v>
+      </c>
+      <c r="G403" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H403" s="3">
+        <v>5</v>
+      </c>
+      <c r="K403" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A404" s="3">
+        <v>31602</v>
+      </c>
+      <c r="B404" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C404" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D404" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E404" s="3">
         <v>2</v>
       </c>
-      <c r="F390" s="3">
-        <v>0</v>
-      </c>
-      <c r="G390" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H390" s="3">
-        <v>1</v>
-      </c>
-      <c r="K390" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A391" s="3">
-        <v>100203</v>
-      </c>
-      <c r="B391" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C391" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D391" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E391" s="1">
+      <c r="F404" s="3">
+        <v>99</v>
+      </c>
+      <c r="G404" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H404" s="3">
+        <v>5</v>
+      </c>
+      <c r="K404" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A405" s="3">
+        <v>31603</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C405" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D405" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E405" s="3">
         <v>3</v>
       </c>
-      <c r="F391" s="3">
-        <v>0</v>
-      </c>
-      <c r="G391" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H391" s="3">
-        <v>1</v>
-      </c>
-      <c r="K391" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A392" s="3">
-        <v>100204</v>
-      </c>
-      <c r="B392" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C392" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D392" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E392" s="1">
+      <c r="F405" s="3">
+        <v>99</v>
+      </c>
+      <c r="G405" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H405" s="3">
+        <v>5</v>
+      </c>
+      <c r="K405" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A406" s="3">
+        <v>31604</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C406" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D406" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E406" s="3">
         <v>4</v>
       </c>
-      <c r="F392" s="3">
-        <v>0</v>
-      </c>
-      <c r="G392" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H392" s="3">
-        <v>1</v>
-      </c>
-      <c r="K392" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A393" s="3">
-        <v>100205</v>
-      </c>
-      <c r="B393" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C393" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D393" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E393" s="1">
+      <c r="F406" s="3">
+        <v>99</v>
+      </c>
+      <c r="G406" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H406" s="3">
         <v>5</v>
       </c>
-      <c r="F393" s="3">
-        <v>0</v>
-      </c>
-      <c r="G393" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H393" s="3">
-        <v>1</v>
-      </c>
-      <c r="K393" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A394" s="3">
-        <v>100206</v>
-      </c>
-      <c r="B394" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C394" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D394" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E394" s="1">
+      <c r="K406" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A407" s="3">
+        <v>31605</v>
+      </c>
+      <c r="B407" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C407" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D407" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E407" s="3">
+        <v>5</v>
+      </c>
+      <c r="F407" s="3">
+        <v>99</v>
+      </c>
+      <c r="G407" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H407" s="3">
+        <v>5</v>
+      </c>
+      <c r="K407" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A408" s="3">
+        <v>31606</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C408" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D408" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E408" s="3">
         <v>6</v>
       </c>
-      <c r="F394" s="3">
-        <v>0</v>
-      </c>
-      <c r="G394" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H394" s="3">
-        <v>1</v>
-      </c>
-      <c r="K394" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A395" s="3">
-        <v>100207</v>
-      </c>
-      <c r="B395" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C395" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D395" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E395" s="1">
-        <v>7</v>
-      </c>
-      <c r="F395" s="3">
-        <v>0</v>
-      </c>
-      <c r="G395" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H395" s="3">
-        <v>1</v>
-      </c>
-      <c r="K395" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A396" s="3">
-        <v>100208</v>
-      </c>
-      <c r="B396" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C396" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D396" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E396" s="1">
-        <v>8</v>
-      </c>
-      <c r="F396" s="3">
-        <v>0</v>
-      </c>
-      <c r="G396" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H396" s="3">
-        <v>1</v>
-      </c>
-      <c r="K396" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A397" s="3">
-        <v>100209</v>
-      </c>
-      <c r="B397" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C397" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D397" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E397" s="1">
-        <v>9</v>
-      </c>
-      <c r="F397" s="3">
-        <v>0</v>
-      </c>
-      <c r="G397" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H397" s="3">
-        <v>1</v>
-      </c>
-      <c r="K397" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A398" s="3">
-        <v>100210</v>
-      </c>
-      <c r="B398" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C398" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D398" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E398" s="1">
-        <v>10</v>
-      </c>
-      <c r="F398" s="3">
-        <v>0</v>
-      </c>
-      <c r="G398" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H398" s="3">
-        <v>1</v>
-      </c>
-      <c r="K398" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A399" s="3">
-        <v>100301</v>
-      </c>
-      <c r="B399" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C399" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D399" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E399" s="1">
-        <v>1</v>
-      </c>
-      <c r="F399" s="3">
-        <v>0</v>
-      </c>
-      <c r="G399" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H399" s="3">
-        <v>2</v>
-      </c>
-      <c r="K399" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A400" s="3">
-        <v>100302</v>
-      </c>
-      <c r="B400" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C400" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D400" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E400" s="1">
-        <v>2</v>
-      </c>
-      <c r="F400" s="3">
-        <v>0</v>
-      </c>
-      <c r="G400" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H400" s="3">
-        <v>2</v>
-      </c>
-      <c r="K400" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A401" s="3">
-        <v>100303</v>
-      </c>
-      <c r="B401" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C401" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D401" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E401" s="1">
-        <v>3</v>
-      </c>
-      <c r="F401" s="3">
-        <v>0</v>
-      </c>
-      <c r="G401" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H401" s="3">
-        <v>2</v>
-      </c>
-      <c r="K401" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A402" s="3">
-        <v>100304</v>
-      </c>
-      <c r="B402" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C402" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D402" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E402" s="1">
-        <v>4</v>
-      </c>
-      <c r="F402" s="3">
-        <v>0</v>
-      </c>
-      <c r="G402" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H402" s="3">
-        <v>2</v>
-      </c>
-      <c r="K402" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A403" s="3">
-        <v>100305</v>
-      </c>
-      <c r="B403" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C403" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D403" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E403" s="1">
+      <c r="F408" s="3">
+        <v>99</v>
+      </c>
+      <c r="G408" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H408" s="3">
         <v>5</v>
-      </c>
-      <c r="F403" s="3">
-        <v>0</v>
-      </c>
-      <c r="G403" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H403" s="3">
-        <v>2</v>
-      </c>
-      <c r="K403" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A404" s="3">
-        <v>100306</v>
-      </c>
-      <c r="B404" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C404" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D404" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E404" s="1">
-        <v>6</v>
-      </c>
-      <c r="F404" s="3">
-        <v>0</v>
-      </c>
-      <c r="G404" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H404" s="3">
-        <v>2</v>
-      </c>
-      <c r="K404" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A405" s="3">
-        <v>100307</v>
-      </c>
-      <c r="B405" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C405" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D405" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E405" s="1">
-        <v>7</v>
-      </c>
-      <c r="F405" s="3">
-        <v>0</v>
-      </c>
-      <c r="G405" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H405" s="3">
-        <v>2</v>
-      </c>
-      <c r="K405" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A406" s="3">
-        <v>100308</v>
-      </c>
-      <c r="B406" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C406" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D406" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E406" s="1">
-        <v>8</v>
-      </c>
-      <c r="F406" s="3">
-        <v>0</v>
-      </c>
-      <c r="G406" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H406" s="3">
-        <v>2</v>
-      </c>
-      <c r="K406" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A407" s="3">
-        <v>100309</v>
-      </c>
-      <c r="B407" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C407" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D407" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E407" s="1">
-        <v>9</v>
-      </c>
-      <c r="F407" s="3">
-        <v>0</v>
-      </c>
-      <c r="G407" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H407" s="3">
-        <v>2</v>
-      </c>
-      <c r="K407" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A408" s="3">
-        <v>100310</v>
-      </c>
-      <c r="B408" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C408" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D408" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E408" s="1">
-        <v>10</v>
-      </c>
-      <c r="F408" s="3">
-        <v>0</v>
-      </c>
-      <c r="G408" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H408" s="3">
-        <v>2</v>
       </c>
       <c r="K408" s="3" t="s">
         <v>55</v>
@@ -12572,28 +12630,28 @@
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="3">
-        <v>130201</v>
+        <v>31607</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D409" s="3" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="E409" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F409" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G409" s="3" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="H409" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K409" s="3" t="s">
         <v>55</v>
@@ -12601,28 +12659,28 @@
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="3">
-        <v>130202</v>
+        <v>31608</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="E410" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F410" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G410" s="3" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="H410" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K410" s="3" t="s">
         <v>55</v>
@@ -12630,28 +12688,28 @@
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="3">
-        <v>130203</v>
+        <v>31609</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D411" s="3" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="E411" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F411" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G411" s="3" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="H411" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K411" s="3" t="s">
         <v>55</v>
@@ -12659,28 +12717,28 @@
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="3">
-        <v>130204</v>
+        <v>31610</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D412" s="3" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="E412" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F412" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G412" s="3" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="H412" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K412" s="3" t="s">
         <v>55</v>
@@ -12688,28 +12746,28 @@
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="3">
-        <v>130205</v>
+        <v>31611</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D413" s="3" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="E413" s="3">
+        <v>11</v>
+      </c>
+      <c r="F413" s="3">
+        <v>99</v>
+      </c>
+      <c r="G413" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H413" s="3">
         <v>5</v>
-      </c>
-      <c r="F413" s="3">
-        <v>0</v>
-      </c>
-      <c r="G413" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H413" s="3">
-        <v>1</v>
       </c>
       <c r="K413" s="3" t="s">
         <v>55</v>
@@ -12717,28 +12775,28 @@
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="3">
-        <v>130206</v>
+        <v>31612</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="E414" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F414" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G414" s="3" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="H414" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K414" s="3" t="s">
         <v>55</v>
@@ -12746,28 +12804,28 @@
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="3">
-        <v>130207</v>
+        <v>31613</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D415" s="3" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="E415" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F415" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G415" s="3" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="H415" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K415" s="3" t="s">
         <v>55</v>
@@ -12775,28 +12833,28 @@
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="3">
-        <v>130208</v>
+        <v>31614</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="E416" s="3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F416" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G416" s="3" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="H416" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K416" s="3" t="s">
         <v>55</v>
@@ -12804,28 +12862,28 @@
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="3">
-        <v>130209</v>
+        <v>31615</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D417" s="3" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="E417" s="3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F417" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G417" s="3" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="H417" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K417" s="3" t="s">
         <v>55</v>
@@ -12833,28 +12891,28 @@
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="3">
-        <v>130210</v>
+        <v>31616</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D418" s="3" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="E418" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F418" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G418" s="3" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="H418" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K418" s="3" t="s">
         <v>55</v>
@@ -12862,28 +12920,28 @@
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="3">
-        <v>130211</v>
+        <v>31617</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D419" s="3" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="E419" s="3">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F419" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G419" s="3" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="H419" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K419" s="3" t="s">
         <v>55</v>
@@ -12891,28 +12949,28 @@
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="3">
-        <v>130212</v>
+        <v>31618</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D420" s="3" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="E420" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F420" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G420" s="3" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="H420" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K420" s="3" t="s">
         <v>55</v>
@@ -12920,28 +12978,28 @@
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="3">
-        <v>130213</v>
+        <v>31619</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D421" s="3" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="E421" s="3">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F421" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G421" s="3" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="H421" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K421" s="3" t="s">
         <v>55</v>
@@ -12949,28 +13007,28 @@
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="3">
-        <v>130214</v>
+        <v>31620</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="E422" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F422" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G422" s="3" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="H422" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K422" s="3" t="s">
         <v>55</v>
@@ -12978,28 +13036,28 @@
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="3">
-        <v>130215</v>
+        <v>31621</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="E423" s="3">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F423" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G423" s="3" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="H423" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K423" s="3" t="s">
         <v>55</v>
@@ -13007,28 +13065,28 @@
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="3">
-        <v>130601</v>
+        <v>31622</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="E424" s="3">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F424" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G424" s="3" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="H424" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K424" s="3" t="s">
         <v>55</v>
@@ -13036,28 +13094,28 @@
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="3">
-        <v>130602</v>
+        <v>31623</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="E425" s="3">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="F425" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G425" s="3" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="H425" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K425" s="3" t="s">
         <v>55</v>
@@ -13065,28 +13123,28 @@
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="3">
-        <v>130603</v>
+        <v>31624</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D426" s="3" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="E426" s="3">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F426" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G426" s="3" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="H426" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K426" s="3" t="s">
         <v>55</v>
@@ -13094,28 +13152,28 @@
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="3">
-        <v>130604</v>
+        <v>31625</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="E427" s="3">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F427" s="3">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G427" s="3" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="H427" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K427" s="3" t="s">
         <v>55</v>
@@ -13123,30 +13181,1725 @@
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="3">
+        <v>31626</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C428" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D428" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E428" s="3">
+        <v>26</v>
+      </c>
+      <c r="F428" s="3">
+        <v>99</v>
+      </c>
+      <c r="G428" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H428" s="3">
+        <v>5</v>
+      </c>
+      <c r="K428" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A429" s="3">
+        <v>31627</v>
+      </c>
+      <c r="B429" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C429" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D429" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E429" s="3">
+        <v>27</v>
+      </c>
+      <c r="F429" s="3">
+        <v>99</v>
+      </c>
+      <c r="G429" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H429" s="3">
+        <v>5</v>
+      </c>
+      <c r="K429" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A430" s="3">
+        <v>31628</v>
+      </c>
+      <c r="B430" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C430" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D430" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E430" s="3">
+        <v>28</v>
+      </c>
+      <c r="F430" s="3">
+        <v>99</v>
+      </c>
+      <c r="G430" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H430" s="3">
+        <v>5</v>
+      </c>
+      <c r="K430" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A431" s="3">
+        <v>31629</v>
+      </c>
+      <c r="B431" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C431" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D431" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E431" s="3">
+        <v>29</v>
+      </c>
+      <c r="F431" s="3">
+        <v>99</v>
+      </c>
+      <c r="G431" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H431" s="3">
+        <v>5</v>
+      </c>
+      <c r="K431" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A432" s="3">
+        <v>31630</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D432" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E432" s="3">
+        <v>30</v>
+      </c>
+      <c r="F432" s="3">
+        <v>99</v>
+      </c>
+      <c r="G432" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H432" s="3">
+        <v>5</v>
+      </c>
+      <c r="K432" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A433" s="1">
+        <v>40100</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E433" s="1">
+        <v>2</v>
+      </c>
+      <c r="F433" s="3">
+        <v>2</v>
+      </c>
+      <c r="G433" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H433" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A434" s="1">
+        <v>40200</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E434" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F434" s="3">
+        <v>2</v>
+      </c>
+      <c r="G434" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H434" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A435" s="1">
+        <v>40300</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E435" s="1">
+        <v>0</v>
+      </c>
+      <c r="F435" s="3">
+        <v>1</v>
+      </c>
+      <c r="G435" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H435" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A436" s="1">
+        <v>40400</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E436" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F436" s="3">
+        <v>2</v>
+      </c>
+      <c r="G436" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H436" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A437" s="1">
+        <v>40500</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E437" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F437" s="3">
+        <v>2</v>
+      </c>
+      <c r="G437" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H437" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A438" s="11">
+        <v>40600</v>
+      </c>
+      <c r="B438" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C438" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D438" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E438" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="F438" s="10">
+        <v>3</v>
+      </c>
+      <c r="G438" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H438" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A439" s="11">
+        <v>40700</v>
+      </c>
+      <c r="B439" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C439" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D439" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E439" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="F439" s="10">
+        <v>3</v>
+      </c>
+      <c r="G439" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H439" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A440" s="11">
+        <v>40800</v>
+      </c>
+      <c r="B440" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C440" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D440" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E440" s="11">
+        <v>1</v>
+      </c>
+      <c r="F440" s="10">
+        <v>3</v>
+      </c>
+      <c r="G440" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H440" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A441" s="1">
+        <v>40900</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D441" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E441" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F441" s="3">
+        <v>4</v>
+      </c>
+      <c r="G441" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H441" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A442" s="1">
+        <v>41000</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D442" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E442" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F442" s="3">
+        <v>1</v>
+      </c>
+      <c r="G442" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H442" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A443" s="1">
+        <v>41100</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D443" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E443" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F443" s="3">
+        <v>4</v>
+      </c>
+      <c r="G443" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H443" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A444" s="1">
+        <v>41200</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D444" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E444" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F444" s="3">
+        <v>1</v>
+      </c>
+      <c r="G444" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H444" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A445" s="1">
+        <v>41300</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E445" s="3">
+        <v>1</v>
+      </c>
+      <c r="F445" s="3">
+        <v>0</v>
+      </c>
+      <c r="G445" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H445" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A446" s="3">
+        <v>50100</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C446" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D446" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E446" s="3">
+        <v>0</v>
+      </c>
+      <c r="F446" s="3">
+        <v>3</v>
+      </c>
+      <c r="G446" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H446" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A447" s="3">
+        <v>50200</v>
+      </c>
+      <c r="B447" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C447" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D447" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E447" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F447" s="3">
+        <v>0</v>
+      </c>
+      <c r="G447" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H447" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A448" s="3">
+        <v>100101</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D448" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E448" s="1">
+        <v>1</v>
+      </c>
+      <c r="F448" s="3">
+        <v>0</v>
+      </c>
+      <c r="G448" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H448" s="3">
+        <v>1</v>
+      </c>
+      <c r="K448" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A449" s="3">
+        <v>100201</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D449" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E449" s="1">
+        <v>1</v>
+      </c>
+      <c r="F449" s="3">
+        <v>0</v>
+      </c>
+      <c r="G449" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H449" s="3">
+        <v>1</v>
+      </c>
+      <c r="K449" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A450" s="3">
+        <v>100202</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D450" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E450" s="1">
+        <v>2</v>
+      </c>
+      <c r="F450" s="3">
+        <v>0</v>
+      </c>
+      <c r="G450" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H450" s="3">
+        <v>1</v>
+      </c>
+      <c r="K450" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A451" s="3">
+        <v>100203</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D451" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E451" s="1">
+        <v>3</v>
+      </c>
+      <c r="F451" s="3">
+        <v>0</v>
+      </c>
+      <c r="G451" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H451" s="3">
+        <v>1</v>
+      </c>
+      <c r="K451" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A452" s="3">
+        <v>100204</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D452" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E452" s="1">
+        <v>4</v>
+      </c>
+      <c r="F452" s="3">
+        <v>0</v>
+      </c>
+      <c r="G452" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H452" s="3">
+        <v>1</v>
+      </c>
+      <c r="K452" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A453" s="3">
+        <v>100205</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D453" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E453" s="1">
+        <v>5</v>
+      </c>
+      <c r="F453" s="3">
+        <v>0</v>
+      </c>
+      <c r="G453" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H453" s="3">
+        <v>1</v>
+      </c>
+      <c r="K453" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A454" s="3">
+        <v>100206</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D454" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E454" s="1">
+        <v>6</v>
+      </c>
+      <c r="F454" s="3">
+        <v>0</v>
+      </c>
+      <c r="G454" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H454" s="3">
+        <v>1</v>
+      </c>
+      <c r="K454" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A455" s="3">
+        <v>100207</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D455" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E455" s="1">
+        <v>7</v>
+      </c>
+      <c r="F455" s="3">
+        <v>0</v>
+      </c>
+      <c r="G455" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H455" s="3">
+        <v>1</v>
+      </c>
+      <c r="K455" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A456" s="3">
+        <v>100208</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D456" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E456" s="1">
+        <v>8</v>
+      </c>
+      <c r="F456" s="3">
+        <v>0</v>
+      </c>
+      <c r="G456" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H456" s="3">
+        <v>1</v>
+      </c>
+      <c r="K456" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A457" s="3">
+        <v>100209</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D457" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E457" s="1">
+        <v>9</v>
+      </c>
+      <c r="F457" s="3">
+        <v>0</v>
+      </c>
+      <c r="G457" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H457" s="3">
+        <v>1</v>
+      </c>
+      <c r="K457" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A458" s="3">
+        <v>100210</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D458" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E458" s="1">
+        <v>10</v>
+      </c>
+      <c r="F458" s="3">
+        <v>0</v>
+      </c>
+      <c r="G458" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H458" s="3">
+        <v>1</v>
+      </c>
+      <c r="K458" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A459" s="3">
+        <v>100301</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D459" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E459" s="1">
+        <v>1</v>
+      </c>
+      <c r="F459" s="3">
+        <v>0</v>
+      </c>
+      <c r="G459" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H459" s="3">
+        <v>2</v>
+      </c>
+      <c r="K459" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A460" s="3">
+        <v>100302</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E460" s="1">
+        <v>2</v>
+      </c>
+      <c r="F460" s="3">
+        <v>0</v>
+      </c>
+      <c r="G460" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H460" s="3">
+        <v>2</v>
+      </c>
+      <c r="K460" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A461" s="3">
+        <v>100303</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E461" s="1">
+        <v>3</v>
+      </c>
+      <c r="F461" s="3">
+        <v>0</v>
+      </c>
+      <c r="G461" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H461" s="3">
+        <v>2</v>
+      </c>
+      <c r="K461" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A462" s="3">
+        <v>100304</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E462" s="1">
+        <v>4</v>
+      </c>
+      <c r="F462" s="3">
+        <v>0</v>
+      </c>
+      <c r="G462" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H462" s="3">
+        <v>2</v>
+      </c>
+      <c r="K462" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A463" s="3">
+        <v>100305</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D463" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E463" s="1">
+        <v>5</v>
+      </c>
+      <c r="F463" s="3">
+        <v>0</v>
+      </c>
+      <c r="G463" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H463" s="3">
+        <v>2</v>
+      </c>
+      <c r="K463" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A464" s="3">
+        <v>100306</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E464" s="1">
+        <v>6</v>
+      </c>
+      <c r="F464" s="3">
+        <v>0</v>
+      </c>
+      <c r="G464" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H464" s="3">
+        <v>2</v>
+      </c>
+      <c r="K464" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A465" s="3">
+        <v>100307</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E465" s="1">
+        <v>7</v>
+      </c>
+      <c r="F465" s="3">
+        <v>0</v>
+      </c>
+      <c r="G465" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H465" s="3">
+        <v>2</v>
+      </c>
+      <c r="K465" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A466" s="3">
+        <v>100308</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D466" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E466" s="1">
+        <v>8</v>
+      </c>
+      <c r="F466" s="3">
+        <v>0</v>
+      </c>
+      <c r="G466" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H466" s="3">
+        <v>2</v>
+      </c>
+      <c r="K466" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A467" s="3">
+        <v>100309</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D467" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E467" s="1">
+        <v>9</v>
+      </c>
+      <c r="F467" s="3">
+        <v>0</v>
+      </c>
+      <c r="G467" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H467" s="3">
+        <v>2</v>
+      </c>
+      <c r="K467" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A468" s="3">
+        <v>100310</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E468" s="1">
+        <v>10</v>
+      </c>
+      <c r="F468" s="3">
+        <v>0</v>
+      </c>
+      <c r="G468" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H468" s="3">
+        <v>2</v>
+      </c>
+      <c r="K468" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A469" s="3">
+        <v>130201</v>
+      </c>
+      <c r="B469" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C469" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D469" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E469" s="3">
+        <v>1</v>
+      </c>
+      <c r="F469" s="3">
+        <v>0</v>
+      </c>
+      <c r="G469" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H469" s="3">
+        <v>1</v>
+      </c>
+      <c r="K469" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A470" s="3">
+        <v>130202</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C470" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D470" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E470" s="3">
+        <v>2</v>
+      </c>
+      <c r="F470" s="3">
+        <v>0</v>
+      </c>
+      <c r="G470" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H470" s="3">
+        <v>1</v>
+      </c>
+      <c r="K470" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A471" s="3">
+        <v>130203</v>
+      </c>
+      <c r="B471" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C471" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D471" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E471" s="3">
+        <v>3</v>
+      </c>
+      <c r="F471" s="3">
+        <v>0</v>
+      </c>
+      <c r="G471" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H471" s="3">
+        <v>1</v>
+      </c>
+      <c r="K471" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A472" s="3">
+        <v>130204</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C472" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D472" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E472" s="3">
+        <v>4</v>
+      </c>
+      <c r="F472" s="3">
+        <v>0</v>
+      </c>
+      <c r="G472" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H472" s="3">
+        <v>1</v>
+      </c>
+      <c r="K472" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A473" s="3">
+        <v>130205</v>
+      </c>
+      <c r="B473" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C473" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D473" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E473" s="3">
+        <v>5</v>
+      </c>
+      <c r="F473" s="3">
+        <v>0</v>
+      </c>
+      <c r="G473" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H473" s="3">
+        <v>1</v>
+      </c>
+      <c r="K473" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A474" s="3">
+        <v>130206</v>
+      </c>
+      <c r="B474" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C474" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D474" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E474" s="3">
+        <v>6</v>
+      </c>
+      <c r="F474" s="3">
+        <v>0</v>
+      </c>
+      <c r="G474" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H474" s="3">
+        <v>1</v>
+      </c>
+      <c r="K474" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A475" s="3">
+        <v>130207</v>
+      </c>
+      <c r="B475" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C475" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D475" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E475" s="3">
+        <v>7</v>
+      </c>
+      <c r="F475" s="3">
+        <v>0</v>
+      </c>
+      <c r="G475" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H475" s="3">
+        <v>1</v>
+      </c>
+      <c r="K475" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A476" s="3">
+        <v>130208</v>
+      </c>
+      <c r="B476" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C476" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D476" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E476" s="3">
+        <v>8</v>
+      </c>
+      <c r="F476" s="3">
+        <v>0</v>
+      </c>
+      <c r="G476" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H476" s="3">
+        <v>1</v>
+      </c>
+      <c r="K476" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A477" s="3">
+        <v>130209</v>
+      </c>
+      <c r="B477" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C477" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D477" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E477" s="3">
+        <v>9</v>
+      </c>
+      <c r="F477" s="3">
+        <v>0</v>
+      </c>
+      <c r="G477" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H477" s="3">
+        <v>1</v>
+      </c>
+      <c r="K477" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A478" s="3">
+        <v>130210</v>
+      </c>
+      <c r="B478" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C478" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D478" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E478" s="3">
+        <v>10</v>
+      </c>
+      <c r="F478" s="3">
+        <v>0</v>
+      </c>
+      <c r="G478" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H478" s="3">
+        <v>1</v>
+      </c>
+      <c r="K478" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A479" s="3">
+        <v>130211</v>
+      </c>
+      <c r="B479" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C479" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D479" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E479" s="3">
+        <v>11</v>
+      </c>
+      <c r="F479" s="3">
+        <v>0</v>
+      </c>
+      <c r="G479" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H479" s="3">
+        <v>1</v>
+      </c>
+      <c r="K479" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A480" s="3">
+        <v>130212</v>
+      </c>
+      <c r="B480" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C480" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D480" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E480" s="3">
+        <v>12</v>
+      </c>
+      <c r="F480" s="3">
+        <v>0</v>
+      </c>
+      <c r="G480" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H480" s="3">
+        <v>1</v>
+      </c>
+      <c r="K480" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A481" s="3">
+        <v>130213</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C481" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D481" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E481" s="3">
+        <v>13</v>
+      </c>
+      <c r="F481" s="3">
+        <v>0</v>
+      </c>
+      <c r="G481" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H481" s="3">
+        <v>1</v>
+      </c>
+      <c r="K481" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A482" s="3">
+        <v>130214</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C482" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D482" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E482" s="3">
+        <v>14</v>
+      </c>
+      <c r="F482" s="3">
+        <v>0</v>
+      </c>
+      <c r="G482" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H482" s="3">
+        <v>1</v>
+      </c>
+      <c r="K482" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A483" s="3">
+        <v>130215</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C483" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D483" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E483" s="3">
+        <v>15</v>
+      </c>
+      <c r="F483" s="3">
+        <v>0</v>
+      </c>
+      <c r="G483" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H483" s="3">
+        <v>1</v>
+      </c>
+      <c r="K483" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A484" s="3">
+        <v>130601</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C484" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D484" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E484" s="3">
+        <v>1</v>
+      </c>
+      <c r="F484" s="3">
+        <v>0</v>
+      </c>
+      <c r="G484" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H484" s="3">
+        <v>1</v>
+      </c>
+      <c r="K484" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A485" s="3">
+        <v>130602</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D485" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E485" s="3">
+        <v>2</v>
+      </c>
+      <c r="F485" s="3">
+        <v>0</v>
+      </c>
+      <c r="G485" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H485" s="3">
+        <v>1</v>
+      </c>
+      <c r="K485" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A486" s="3">
+        <v>130603</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C486" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D486" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E486" s="3">
+        <v>3</v>
+      </c>
+      <c r="F486" s="3">
+        <v>0</v>
+      </c>
+      <c r="G486" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H486" s="3">
+        <v>1</v>
+      </c>
+      <c r="K486" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A487" s="3">
+        <v>130604</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C487" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D487" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E487" s="3">
+        <v>4</v>
+      </c>
+      <c r="F487" s="3">
+        <v>0</v>
+      </c>
+      <c r="G487" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H487" s="3">
+        <v>1</v>
+      </c>
+      <c r="K487" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A488" s="3">
         <v>130605</v>
       </c>
-      <c r="B428" s="3" t="s">
+      <c r="B488" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C428" s="3" t="s">
+      <c r="C488" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D428" s="3" t="s">
+      <c r="D488" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E428" s="3">
+      <c r="E488" s="3">
         <v>5</v>
       </c>
-      <c r="F428" s="3">
-        <v>0</v>
-      </c>
-      <c r="G428" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H428" s="3">
-        <v>1</v>
-      </c>
-      <c r="K428" s="3" t="s">
+      <c r="F488" s="3">
+        <v>0</v>
+      </c>
+      <c r="G488" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H488" s="3">
+        <v>1</v>
+      </c>
+      <c r="K488" s="3" t="s">
         <v>55</v>
       </c>
     </row>

--- a/GameData/Excel/spell_effect.xlsx
+++ b/GameData/Excel/spell_effect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEADDE4-CA41-4D8D-B60B-3D9AB46DAC6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B92019-475A-46D2-99CE-651244075017}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8220" yWindow="6390" windowWidth="34560" windowHeight="18795" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -960,8 +960,8 @@
   <dimension ref="A1:K818"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A675" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E700" sqref="E700"/>
+      <pane ySplit="3" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E166" sqref="E166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -3427,10 +3427,10 @@
         <v>0</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H85" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K85" s="3" t="s">
         <v>55</v>
@@ -3456,10 +3456,10 @@
         <v>0</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H86" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>55</v>
@@ -3485,10 +3485,10 @@
         <v>0</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H87" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>55</v>
@@ -3514,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H88" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
         <v>55</v>
@@ -3543,10 +3543,10 @@
         <v>0</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H89" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>55</v>
@@ -3572,10 +3572,10 @@
         <v>0</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H90" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K90" s="3" t="s">
         <v>55</v>
@@ -3601,10 +3601,10 @@
         <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H91" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>55</v>
@@ -3630,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H92" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K92" s="3" t="s">
         <v>55</v>
@@ -3659,10 +3659,10 @@
         <v>0</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H93" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K93" s="3" t="s">
         <v>55</v>
@@ -3688,10 +3688,10 @@
         <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H94" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>55</v>
@@ -3717,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H95" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K95" s="3" t="s">
         <v>55</v>
@@ -3746,10 +3746,10 @@
         <v>0</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H96" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K96" s="3" t="s">
         <v>55</v>
@@ -3775,10 +3775,10 @@
         <v>0</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H97" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K97" s="3" t="s">
         <v>55</v>
@@ -3804,10 +3804,10 @@
         <v>0</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H98" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K98" s="3" t="s">
         <v>55</v>
@@ -3833,10 +3833,10 @@
         <v>0</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H99" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K99" s="3" t="s">
         <v>55</v>
@@ -3862,10 +3862,10 @@
         <v>0</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H100" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>55</v>
@@ -3891,10 +3891,10 @@
         <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H101" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>55</v>
@@ -3920,10 +3920,10 @@
         <v>0</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H102" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>55</v>
@@ -3949,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H103" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K103" s="3" t="s">
         <v>55</v>
@@ -3978,10 +3978,10 @@
         <v>0</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H104" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K104" s="3" t="s">
         <v>55</v>
@@ -4007,10 +4007,10 @@
         <v>0</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H105" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K105" s="3" t="s">
         <v>55</v>
@@ -4036,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H106" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K106" s="3" t="s">
         <v>55</v>
@@ -4065,10 +4065,10 @@
         <v>0</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H107" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K107" s="3" t="s">
         <v>55</v>
@@ -4094,10 +4094,10 @@
         <v>0</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H108" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K108" s="3" t="s">
         <v>55</v>
@@ -4123,10 +4123,10 @@
         <v>0</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H109" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K109" s="3" t="s">
         <v>55</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H110" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K110" s="3" t="s">
         <v>55</v>
@@ -4181,10 +4181,10 @@
         <v>0</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H111" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K111" s="3" t="s">
         <v>55</v>
@@ -4210,10 +4210,10 @@
         <v>0</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H112" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K112" s="3" t="s">
         <v>55</v>
@@ -4239,10 +4239,10 @@
         <v>0</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H113" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K113" s="3" t="s">
         <v>55</v>
@@ -4268,10 +4268,10 @@
         <v>0</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H114" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K114" s="3" t="s">
         <v>55</v>
@@ -4297,10 +4297,10 @@
         <v>0</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H115" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
         <v>55</v>
@@ -4326,10 +4326,10 @@
         <v>0</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H116" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K116" s="3" t="s">
         <v>55</v>
@@ -4355,10 +4355,10 @@
         <v>0</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H117" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K117" s="3" t="s">
         <v>55</v>
@@ -4384,10 +4384,10 @@
         <v>0</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H118" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K118" s="3" t="s">
         <v>55</v>
@@ -4413,10 +4413,10 @@
         <v>0</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H119" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K119" s="3" t="s">
         <v>55</v>
@@ -4442,10 +4442,10 @@
         <v>0</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H120" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K120" s="3" t="s">
         <v>55</v>
@@ -4471,10 +4471,10 @@
         <v>0</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H121" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K121" s="3" t="s">
         <v>55</v>
@@ -4500,10 +4500,10 @@
         <v>0</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H122" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K122" s="3" t="s">
         <v>55</v>
@@ -4529,10 +4529,10 @@
         <v>0</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H123" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K123" s="3" t="s">
         <v>55</v>
@@ -4558,10 +4558,10 @@
         <v>0</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H124" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K124" s="3" t="s">
         <v>55</v>
@@ -4587,10 +4587,10 @@
         <v>0</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H125" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K125" s="3" t="s">
         <v>55</v>
@@ -4616,10 +4616,10 @@
         <v>0</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H126" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K126" s="3" t="s">
         <v>55</v>
@@ -4645,10 +4645,10 @@
         <v>0</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H127" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K127" s="3" t="s">
         <v>55</v>
@@ -4674,10 +4674,10 @@
         <v>0</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H128" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K128" s="3" t="s">
         <v>55</v>
@@ -4703,10 +4703,10 @@
         <v>0</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H129" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K129" s="3" t="s">
         <v>55</v>
@@ -4732,10 +4732,10 @@
         <v>0</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H130" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K130" s="3" t="s">
         <v>55</v>
@@ -4761,10 +4761,10 @@
         <v>0</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H131" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K131" s="3" t="s">
         <v>55</v>
@@ -4790,10 +4790,10 @@
         <v>0</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H132" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K132" s="3" t="s">
         <v>55</v>
@@ -4819,10 +4819,10 @@
         <v>0</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H133" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K133" s="3" t="s">
         <v>55</v>
@@ -4848,10 +4848,10 @@
         <v>0</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H134" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K134" s="3" t="s">
         <v>55</v>
@@ -5427,10 +5427,10 @@
         <v>3</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H155" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K155" s="3" t="s">
         <v>55</v>
@@ -5456,10 +5456,10 @@
         <v>3</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H156" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K156" s="3" t="s">
         <v>55</v>
@@ -5485,10 +5485,10 @@
         <v>3</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H157" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K157" s="3" t="s">
         <v>55</v>
@@ -5514,10 +5514,10 @@
         <v>3</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H158" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K158" s="3" t="s">
         <v>55</v>
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H159" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K159" s="3" t="s">
         <v>55</v>
@@ -5572,10 +5572,10 @@
         <v>3</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H160" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K160" s="3" t="s">
         <v>55</v>
@@ -5601,10 +5601,10 @@
         <v>3</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H161" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K161" s="3" t="s">
         <v>55</v>
@@ -5630,10 +5630,10 @@
         <v>3</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H162" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K162" s="3" t="s">
         <v>55</v>
@@ -5659,10 +5659,10 @@
         <v>3</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H163" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K163" s="3" t="s">
         <v>55</v>
@@ -5688,10 +5688,10 @@
         <v>3</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="H164" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K164" s="3" t="s">
         <v>55</v>
@@ -13423,7 +13423,7 @@
         <v>106</v>
       </c>
       <c r="H433" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K433" s="3" t="s">
         <v>55</v>
@@ -13452,7 +13452,7 @@
         <v>106</v>
       </c>
       <c r="H434" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K434" s="3" t="s">
         <v>55</v>
@@ -13481,7 +13481,7 @@
         <v>106</v>
       </c>
       <c r="H435" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K435" s="3" t="s">
         <v>55</v>
@@ -13510,7 +13510,7 @@
         <v>106</v>
       </c>
       <c r="H436" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K436" s="3" t="s">
         <v>55</v>
@@ -13539,7 +13539,7 @@
         <v>106</v>
       </c>
       <c r="H437" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K437" s="3" t="s">
         <v>55</v>
@@ -13568,7 +13568,7 @@
         <v>106</v>
       </c>
       <c r="H438" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K438" s="3" t="s">
         <v>55</v>
@@ -13597,7 +13597,7 @@
         <v>106</v>
       </c>
       <c r="H439" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K439" s="3" t="s">
         <v>55</v>
@@ -13626,7 +13626,7 @@
         <v>106</v>
       </c>
       <c r="H440" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K440" s="3" t="s">
         <v>55</v>
@@ -13655,7 +13655,7 @@
         <v>106</v>
       </c>
       <c r="H441" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K441" s="3" t="s">
         <v>55</v>
@@ -13684,7 +13684,7 @@
         <v>106</v>
       </c>
       <c r="H442" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K442" s="3" t="s">
         <v>55</v>
@@ -13713,7 +13713,7 @@
         <v>106</v>
       </c>
       <c r="H443" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K443" s="3" t="s">
         <v>55</v>
@@ -13742,7 +13742,7 @@
         <v>106</v>
       </c>
       <c r="H444" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K444" s="3" t="s">
         <v>55</v>
@@ -13771,7 +13771,7 @@
         <v>106</v>
       </c>
       <c r="H445" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K445" s="3" t="s">
         <v>55</v>
@@ -13800,7 +13800,7 @@
         <v>106</v>
       </c>
       <c r="H446" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K446" s="3" t="s">
         <v>55</v>
@@ -13829,7 +13829,7 @@
         <v>106</v>
       </c>
       <c r="H447" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K447" s="3" t="s">
         <v>55</v>
@@ -13858,7 +13858,7 @@
         <v>106</v>
       </c>
       <c r="H448" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K448" s="3" t="s">
         <v>55</v>
@@ -13887,7 +13887,7 @@
         <v>106</v>
       </c>
       <c r="H449" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K449" s="3" t="s">
         <v>55</v>
@@ -13916,7 +13916,7 @@
         <v>106</v>
       </c>
       <c r="H450" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K450" s="3" t="s">
         <v>55</v>
@@ -13945,7 +13945,7 @@
         <v>106</v>
       </c>
       <c r="H451" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K451" s="3" t="s">
         <v>55</v>
@@ -13974,7 +13974,7 @@
         <v>106</v>
       </c>
       <c r="H452" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K452" s="3" t="s">
         <v>55</v>
@@ -14003,7 +14003,7 @@
         <v>106</v>
       </c>
       <c r="H453" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K453" s="3" t="s">
         <v>55</v>
@@ -14032,7 +14032,7 @@
         <v>106</v>
       </c>
       <c r="H454" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K454" s="3" t="s">
         <v>55</v>
@@ -14061,7 +14061,7 @@
         <v>106</v>
       </c>
       <c r="H455" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K455" s="3" t="s">
         <v>55</v>
@@ -14090,7 +14090,7 @@
         <v>106</v>
       </c>
       <c r="H456" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K456" s="3" t="s">
         <v>55</v>
@@ -14119,7 +14119,7 @@
         <v>106</v>
       </c>
       <c r="H457" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K457" s="3" t="s">
         <v>55</v>
@@ -14148,7 +14148,7 @@
         <v>106</v>
       </c>
       <c r="H458" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K458" s="3" t="s">
         <v>55</v>
@@ -14177,7 +14177,7 @@
         <v>106</v>
       </c>
       <c r="H459" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K459" s="3" t="s">
         <v>55</v>
@@ -14206,7 +14206,7 @@
         <v>106</v>
       </c>
       <c r="H460" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K460" s="3" t="s">
         <v>55</v>
@@ -14235,7 +14235,7 @@
         <v>106</v>
       </c>
       <c r="H461" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K461" s="3" t="s">
         <v>55</v>
@@ -14264,7 +14264,7 @@
         <v>106</v>
       </c>
       <c r="H462" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K462" s="3" t="s">
         <v>55</v>
